--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_0_26.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_0_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1999871.059526664</v>
+        <v>1997042.755609206</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2012592.501808475</v>
+        <v>1859689.337271436</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4915506.425720344</v>
+        <v>4915506.425720346</v>
       </c>
     </row>
     <row r="9">
@@ -661,10 +661,10 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>338.4589606614833</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
         <v>398.5576896346209</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,13 +715,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>95.06840149797507</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
         <v>385.5580790162737</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>236.9322678782958</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -907,13 +907,13 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>12.725494085322</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>136.9537457384598</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>144.8423236290825</v>
       </c>
       <c r="V5" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>53.03638470914571</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>46.66637815986219</v>
       </c>
     </row>
     <row r="8">
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>331.7011032500657</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>12.725494085322</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
         <v>136.9537457384598</v>
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>276.779687315073</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1290,31 +1290,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1350,16 +1350,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>100.3434053864687</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>87.95308749070807</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C11" t="n">
-        <v>304.0769707475231</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F11" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G11" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I11" t="n">
-        <v>136.9537457384598</v>
+        <v>118.9660129713481</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,22 +1423,22 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T11" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="12">
@@ -1530,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1542,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1593,10 +1593,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>46.26204888427127</v>
       </c>
       <c r="Y13" t="n">
-        <v>179.9570833866859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>234.1218618492938</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>408.8929189301868</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>319.4267867345849</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1654,16 +1654,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>28.93121180451567</v>
+        <v>28.93121180451562</v>
       </c>
       <c r="S14" t="n">
-        <v>161.6989813126609</v>
+        <v>132.7672026021986</v>
       </c>
       <c r="T14" t="n">
-        <v>220.6605864018419</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>253.1841455476122</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>338.6857412035168</v>
@@ -1706,7 +1706,7 @@
         <v>86.70025686892491</v>
       </c>
       <c r="I15" t="n">
-        <v>46.34735278023782</v>
+        <v>46.34735278023781</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>19.08658836215443</v>
+        <v>19.08658836215441</v>
       </c>
       <c r="S15" t="n">
         <v>132.2078121878749</v>
@@ -1773,22 +1773,22 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>52.31299220094857</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.5095175501914</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>153.3725664053245</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>129.8990979822881</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>25.69138360918561</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1815,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>199.7075050668008</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>121.9763313599367</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>282.5810222508077</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1861,10 +1861,10 @@
         <v>408.8929189301868</v>
       </c>
       <c r="H17" t="n">
-        <v>319.4267867345849</v>
+        <v>2.808752655208483</v>
       </c>
       <c r="I17" t="n">
-        <v>131.6254422369924</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>28.93121180451567</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1909,10 +1909,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y17" t="n">
-        <v>300.9091928839934</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="18">
@@ -1943,7 +1943,7 @@
         <v>86.70025686892491</v>
       </c>
       <c r="I18" t="n">
-        <v>46.34735278023782</v>
+        <v>46.34735278023781</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>19.08658836215443</v>
+        <v>19.08658836215441</v>
       </c>
       <c r="S18" t="n">
         <v>132.2078121878749</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2013,16 +2013,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.5095175501914</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>153.3725664053245</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>129.8990979822881</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,19 +2052,19 @@
         <v>119.8744223558027</v>
       </c>
       <c r="S19" t="n">
-        <v>199.7075050668008</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>65.71395566471682</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>282.5810222508077</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>39.60978514911062</v>
       </c>
       <c r="W19" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D20" t="n">
         <v>381.5867174954989</v>
@@ -2092,16 +2092,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G20" t="n">
         <v>408.8929189301868</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>319.4267867345849</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>75.45556531147922</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,13 +2128,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>28.93121180451567</v>
+        <v>28.93121180451565</v>
       </c>
       <c r="S20" t="n">
         <v>161.6989813126609</v>
       </c>
       <c r="T20" t="n">
-        <v>220.6605864018419</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>253.1841455476122</v>
@@ -2146,10 +2146,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>194.143128941086</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2180,7 +2180,7 @@
         <v>86.70025686892491</v>
       </c>
       <c r="I21" t="n">
-        <v>46.34735278023782</v>
+        <v>46.34735278023781</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>19.08658836215444</v>
+        <v>19.08658836215442</v>
       </c>
       <c r="S21" t="n">
         <v>132.2078121878749</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.5095175501914</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2262,7 +2262,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>25.69138360918562</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>119.8744223558027</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2298,16 +2298,16 @@
         <v>282.5810222508077</v>
       </c>
       <c r="V22" t="n">
-        <v>58.49662247684181</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X22" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>2.101909004133814</v>
       </c>
     </row>
     <row r="23">
@@ -2317,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C23" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E23" t="n">
         <v>398.5576896346209</v>
@@ -2332,10 +2332,10 @@
         <v>412.725494085322</v>
       </c>
       <c r="G23" t="n">
-        <v>213.7920138795911</v>
+        <v>408.4323500200001</v>
       </c>
       <c r="H23" t="n">
-        <v>314.7099853831353</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2371,16 +2371,16 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>218.6444459974996</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>253.1473000347972</v>
+        <v>181.0739242066371</v>
       </c>
       <c r="V23" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W23" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>385.5580790162737</v>
@@ -2414,7 +2414,7 @@
         <v>118.5388453083828</v>
       </c>
       <c r="H24" t="n">
-        <v>84.32029961295801</v>
+        <v>84.320299612958</v>
       </c>
       <c r="I24" t="n">
         <v>37.86294566882081</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>3.78655434059786</v>
+        <v>3.786554340597846</v>
       </c>
       <c r="S24" t="n">
         <v>127.6305556124798</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2484,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F25" t="n">
         <v>155.7526754391568</v>
@@ -2493,7 +2493,7 @@
         <v>166.3029221927327</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>151.5357458635549</v>
       </c>
       <c r="I25" t="n">
         <v>123.6862121416195</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>110.585143828612</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>196.1071114281788</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2535,16 +2535,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>4.317973364754248</v>
+        <v>76.82072534906496</v>
       </c>
       <c r="W25" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2569,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>408.4323500200001</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>314.7099853831353</v>
@@ -2608,13 +2608,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>218.6444459974996</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>253.1473000347972</v>
       </c>
       <c r="V26" t="n">
-        <v>250.4861294309441</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W26" t="n">
         <v>367.2890446813954</v>
@@ -2623,7 +2623,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y26" t="n">
-        <v>392.5258019886049</v>
+        <v>240.9667942037362</v>
       </c>
     </row>
     <row r="27">
@@ -2651,7 +2651,7 @@
         <v>118.5388453083828</v>
       </c>
       <c r="H27" t="n">
-        <v>84.32029961295801</v>
+        <v>84.320299612958</v>
       </c>
       <c r="I27" t="n">
         <v>37.86294566882081</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>3.78655434059786</v>
+        <v>3.786554340597846</v>
       </c>
       <c r="S27" t="n">
         <v>127.6305556124798</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.3029221927327</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>151.5357458635549</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2766,19 +2766,19 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>232.2142445012334</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>282.5697534131281</v>
       </c>
       <c r="V28" t="n">
-        <v>121.3625366586518</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X28" t="n">
-        <v>231.7395189948467</v>
+        <v>76.19311257242943</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2794,10 +2794,10 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C29" t="n">
-        <v>323.5135784248129</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D29" t="n">
-        <v>381.5867174954989</v>
+        <v>164.2091249549756</v>
       </c>
       <c r="E29" t="n">
         <v>398.5576896346209</v>
@@ -2812,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>113.8693593270195</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,19 +2845,19 @@
         <v>151.2037672717813</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>218.6444459974996</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y29" t="n">
         <v>392.5258019886049</v>
@@ -2888,7 +2888,7 @@
         <v>118.5388453083828</v>
       </c>
       <c r="H30" t="n">
-        <v>84.320299612958</v>
+        <v>84.32029961295801</v>
       </c>
       <c r="I30" t="n">
         <v>37.86294566882081</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>3.786554340597842</v>
+        <v>3.78655434059786</v>
       </c>
       <c r="S30" t="n">
         <v>127.6305556124798</v>
@@ -2961,13 +2961,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G31" t="n">
-        <v>160.5830991923849</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>151.5357458635549</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3003,19 +3003,19 @@
         <v>196.1071114281788</v>
       </c>
       <c r="T31" t="n">
-        <v>232.2142445012334</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>282.5697534131281</v>
+        <v>119.1616104884376</v>
       </c>
       <c r="V31" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3046,7 +3046,7 @@
         <v>408.4323500200001</v>
       </c>
       <c r="H32" t="n">
-        <v>314.7099853831353</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>113.8693593270195</v>
@@ -3079,22 +3079,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>151.2037672717813</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>138.0526585127565</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>338.6857412035168</v>
+        <v>254.6865388113523</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y32" t="n">
         <v>392.5258019886049</v>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,10 +3201,10 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G34" t="n">
-        <v>166.3029221927327</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>151.5357458635549</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>123.6862121416195</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>110.585143828612</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3246,16 +3246,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>200.9530790774029</v>
       </c>
       <c r="Y34" t="n">
-        <v>31.58041739967566</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3271,19 +3271,19 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G35" t="n">
-        <v>408.4323500200001</v>
+        <v>342.5309100708373</v>
       </c>
       <c r="H35" t="n">
-        <v>314.7099853831353</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>113.8693593270195</v>
@@ -3322,16 +3322,16 @@
         <v>218.6444459974996</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>253.1473000347972</v>
       </c>
       <c r="V35" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>346.4313794146815</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y35" t="n">
         <v>392.5258019886049</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>79.79870391116802</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>123.6862121416195</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,10 +3477,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>76.66783807881613</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>282.5697534131281</v>
       </c>
       <c r="V37" t="n">
         <v>263.319551727384</v>
@@ -3511,19 +3511,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F38" t="n">
-        <v>359.9949366463835</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G38" t="n">
-        <v>408.4323500200001</v>
+        <v>342.258524751259</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>113.8693593270195</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>151.2037672717813</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>218.6444459974996</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>367.2890446813954</v>
@@ -3660,31 +3660,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.3029221927327</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>65.7272159929184</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>11.08509183685201</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3717,19 +3717,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>282.5697534131281</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X40" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>76.66783807881622</v>
       </c>
     </row>
     <row r="41">
@@ -3745,19 +3745,19 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E41" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
         <v>408.4323500200001</v>
       </c>
       <c r="H41" t="n">
-        <v>314.7099853831353</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>113.8693593270195</v>
@@ -3790,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>151.2037672717813</v>
+        <v>38.60126140173828</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>253.1473000347972</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>113.8524202928463</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>367.2890446813954</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>128.5533165265859</v>
       </c>
       <c r="C43" t="n">
         <v>168.5030667546707</v>
@@ -3912,7 +3912,7 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G43" t="n">
-        <v>166.3029221927327</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>110.585143828612</v>
       </c>
       <c r="S43" t="n">
-        <v>196.1071114281788</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3957,7 +3957,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>29.46283463305757</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3979,7 +3979,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C44" t="n">
-        <v>43.40700832500578</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
         <v>381.5867174954989</v>
@@ -3994,7 +3994,7 @@
         <v>408.4323500200001</v>
       </c>
       <c r="H44" t="n">
-        <v>314.7099853831353</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4030,10 +4030,10 @@
         <v>151.2037672717813</v>
       </c>
       <c r="T44" t="n">
-        <v>218.6444459974996</v>
+        <v>48.13919126973422</v>
       </c>
       <c r="U44" t="n">
-        <v>253.1473000347972</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>338.6857412035168</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="45">
@@ -4134,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>168.5030667546707</v>
+        <v>64.84213878002311</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E46" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F46" t="n">
-        <v>127.5534923642036</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>110.585143828612</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>232.2142445012334</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W46" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1625.772682068158</v>
+        <v>1414.497688220054</v>
       </c>
       <c r="C2" t="n">
-        <v>1232.597180571088</v>
+        <v>1414.497688220054</v>
       </c>
       <c r="D2" t="n">
-        <v>890.7194425291859</v>
+        <v>1029.056559436721</v>
       </c>
       <c r="E2" t="n">
-        <v>488.1359176457305</v>
+        <v>626.4730345532657</v>
       </c>
       <c r="F2" t="n">
-        <v>71.24147917570829</v>
+        <v>209.5785960832435</v>
       </c>
       <c r="G2" t="n">
-        <v>62.11912770411553</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="H2" t="n">
-        <v>62.11912770411553</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="I2" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J2" t="n">
-        <v>206.7689006129436</v>
+        <v>206.768900612944</v>
       </c>
       <c r="K2" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L2" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M2" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N2" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O2" t="n">
         <v>2572.923332933306</v>
@@ -4363,19 +4363,19 @@
         <v>3067.963471491298</v>
       </c>
       <c r="U2" t="n">
-        <v>2812.210741925897</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="V2" t="n">
-        <v>2812.210741925897</v>
+        <v>2971.934783109505</v>
       </c>
       <c r="W2" t="n">
-        <v>2812.210741925897</v>
+        <v>2600.935748077793</v>
       </c>
       <c r="X2" t="n">
-        <v>2422.758136858954</v>
+        <v>2211.483143010849</v>
       </c>
       <c r="Y2" t="n">
-        <v>2026.267427779555</v>
+        <v>1814.99243393145</v>
       </c>
     </row>
     <row r="3">
@@ -4412,10 +4412,10 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K3" t="n">
-        <v>381.858273766342</v>
+        <v>96.81867335321709</v>
       </c>
       <c r="L3" t="n">
-        <v>865.4243596646552</v>
+        <v>580.3847592515303</v>
       </c>
       <c r="M3" t="n">
         <v>1208.156408878212</v>
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1738.580738653563</v>
+        <v>1818.538092260458</v>
       </c>
       <c r="C5" t="n">
-        <v>1738.580738653563</v>
+        <v>1818.538092260458</v>
       </c>
       <c r="D5" t="n">
-        <v>1353.139609870231</v>
+        <v>1433.096963477125</v>
       </c>
       <c r="E5" t="n">
-        <v>950.5560849867752</v>
+        <v>1030.51343859367</v>
       </c>
       <c r="F5" t="n">
-        <v>937.702050557157</v>
+        <v>613.6190001236475</v>
       </c>
       <c r="G5" t="n">
-        <v>524.5392950451601</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="H5" t="n">
         <v>200.4562446116507</v>
@@ -4591,28 +4591,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R5" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S5" t="n">
-        <v>3105.956385205776</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T5" t="n">
-        <v>3105.956385205776</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="U5" t="n">
-        <v>3105.956385205776</v>
+        <v>2531.643936588652</v>
       </c>
       <c r="V5" t="n">
-        <v>2763.849575909295</v>
+        <v>2189.53712729217</v>
       </c>
       <c r="W5" t="n">
-        <v>2763.849575909295</v>
+        <v>1818.538092260458</v>
       </c>
       <c r="X5" t="n">
-        <v>2374.396970842351</v>
+        <v>1818.538092260458</v>
       </c>
       <c r="Y5" t="n">
-        <v>1977.906261762953</v>
+        <v>1818.538092260458</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J6" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K6" t="n">
-        <v>494.9732559860694</v>
+        <v>96.81867335321709</v>
       </c>
       <c r="L6" t="n">
-        <v>978.5393418843826</v>
+        <v>580.3847592515303</v>
       </c>
       <c r="M6" t="n">
-        <v>978.5393418843826</v>
+        <v>1208.156408878212</v>
       </c>
       <c r="N6" t="n">
-        <v>1634.317313094942</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O6" t="n">
-        <v>1740.468202408463</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P6" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q6" t="n">
         <v>2380.454662679751</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>115.6912334709294</v>
+        <v>731.2203758373341</v>
       </c>
       <c r="C7" t="n">
-        <v>115.6912334709294</v>
+        <v>561.0152579033233</v>
       </c>
       <c r="D7" t="n">
-        <v>115.6912334709294</v>
+        <v>405.3821448058382</v>
       </c>
       <c r="E7" t="n">
-        <v>62.11912770411553</v>
+        <v>249.8233326650406</v>
       </c>
       <c r="F7" t="n">
-        <v>62.11912770411553</v>
+        <v>92.49739787801357</v>
       </c>
       <c r="G7" t="n">
-        <v>62.11912770411553</v>
+        <v>92.49739787801357</v>
       </c>
       <c r="H7" t="n">
-        <v>62.11912770411553</v>
+        <v>92.49739787801357</v>
       </c>
       <c r="I7" t="n">
-        <v>62.11912770411553</v>
+        <v>92.49739787801357</v>
       </c>
       <c r="J7" t="n">
         <v>62.11912770411553</v>
@@ -4749,28 +4749,28 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R7" t="n">
-        <v>839.6651608782449</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S7" t="n">
-        <v>636.8490770607943</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T7" t="n">
-        <v>401.1300252290284</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U7" t="n">
-        <v>115.6912334709294</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="V7" t="n">
-        <v>115.6912334709294</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="W7" t="n">
-        <v>115.6912334709294</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="X7" t="n">
-        <v>115.6912334709294</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="Y7" t="n">
-        <v>115.6912334709294</v>
+        <v>916.4283945286354</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>950.6597514544419</v>
+        <v>2142.621142693967</v>
       </c>
       <c r="C8" t="n">
-        <v>557.4842499573724</v>
+        <v>2142.621142693967</v>
       </c>
       <c r="D8" t="n">
-        <v>222.4326305128616</v>
+        <v>1757.180013910635</v>
       </c>
       <c r="E8" t="n">
-        <v>222.4326305128616</v>
+        <v>1354.596489027179</v>
       </c>
       <c r="F8" t="n">
-        <v>209.5785960832435</v>
+        <v>937.702050557157</v>
       </c>
       <c r="G8" t="n">
-        <v>200.4562446116507</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="H8" t="n">
         <v>200.4562446116507</v>
@@ -4828,28 +4828,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R8" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S8" t="n">
-        <v>3105.956385205776</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T8" t="n">
-        <v>3105.956385205776</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="U8" t="n">
-        <v>2850.203655640375</v>
+        <v>2422.196584426364</v>
       </c>
       <c r="V8" t="n">
-        <v>2508.096846343894</v>
+        <v>2142.621142693967</v>
       </c>
       <c r="W8" t="n">
-        <v>2137.097811312181</v>
+        <v>2142.621142693967</v>
       </c>
       <c r="X8" t="n">
-        <v>1747.645206245238</v>
+        <v>2142.621142693967</v>
       </c>
       <c r="Y8" t="n">
-        <v>1351.154497165839</v>
+        <v>2142.621142693967</v>
       </c>
     </row>
     <row r="9">
@@ -4886,22 +4886,22 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K9" t="n">
-        <v>175.2341099238429</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L9" t="n">
-        <v>658.8001958221562</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M9" t="n">
-        <v>1223.947919817482</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N9" t="n">
-        <v>1223.947919817482</v>
+        <v>1634.317313094942</v>
       </c>
       <c r="O9" t="n">
-        <v>1740.468202408463</v>
+        <v>2150.837595685923</v>
       </c>
       <c r="P9" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q9" t="n">
         <v>2380.454662679751</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>862.2091751078208</v>
+        <v>232.3242456381263</v>
       </c>
       <c r="C10" t="n">
-        <v>862.2091751078208</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D10" t="n">
-        <v>862.2091751078208</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E10" t="n">
-        <v>706.6503629670233</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F10" t="n">
-        <v>549.3244281799962</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G10" t="n">
-        <v>381.0703742794417</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H10" t="n">
-        <v>225.5918232409357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I10" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J10" t="n">
         <v>62.11912770411553</v>
@@ -4998,16 +4998,16 @@
         <v>963.5661502456679</v>
       </c>
       <c r="V10" t="n">
-        <v>862.2091751078208</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="W10" t="n">
-        <v>862.2091751078208</v>
+        <v>874.7246477298012</v>
       </c>
       <c r="X10" t="n">
-        <v>862.2091751078208</v>
+        <v>640.6443255127842</v>
       </c>
       <c r="Y10" t="n">
-        <v>862.2091751078208</v>
+        <v>417.5322643294276</v>
       </c>
     </row>
     <row r="11">
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1661.744944327708</v>
+        <v>2104.464461641553</v>
       </c>
       <c r="C11" t="n">
-        <v>1354.596489027179</v>
+        <v>1711.288960144484</v>
       </c>
       <c r="D11" t="n">
-        <v>1354.596489027179</v>
+        <v>1325.847831361151</v>
       </c>
       <c r="E11" t="n">
-        <v>1354.596489027179</v>
+        <v>923.2643064776958</v>
       </c>
       <c r="F11" t="n">
-        <v>937.702050557157</v>
+        <v>506.3698680076735</v>
       </c>
       <c r="G11" t="n">
-        <v>524.5392950451601</v>
+        <v>506.3698680076735</v>
       </c>
       <c r="H11" t="n">
-        <v>200.4562446116507</v>
+        <v>182.2868175741642</v>
       </c>
       <c r="I11" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J11" t="n">
-        <v>206.768900612944</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K11" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L11" t="n">
         <v>1059.071548358934</v>
@@ -5059,7 +5059,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P11" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q11" t="n">
         <v>3105.956385205776</v>
@@ -5068,25 +5068,25 @@
         <v>3067.963471491298</v>
       </c>
       <c r="S11" t="n">
-        <v>2901.449916432348</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T11" t="n">
-        <v>2677.949313991765</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="U11" t="n">
-        <v>2422.196584426364</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="V11" t="n">
-        <v>2422.196584426364</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="W11" t="n">
-        <v>2051.197549394651</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="X11" t="n">
-        <v>1661.744944327708</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="Y11" t="n">
-        <v>1661.744944327708</v>
+        <v>2504.95920735295</v>
       </c>
     </row>
     <row r="12">
@@ -5117,25 +5117,25 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I12" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>62.11912770411552</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K12" t="n">
-        <v>381.8582737663419</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L12" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M12" t="n">
-        <v>865.4243596646552</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N12" t="n">
-        <v>1521.202330875214</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O12" t="n">
-        <v>2037.722613466195</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P12" t="n">
         <v>2146.089571124861</v>
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>230.37318160467</v>
+        <v>365.4186710010484</v>
       </c>
       <c r="C13" t="n">
-        <v>230.37318160467</v>
+        <v>195.2135530670377</v>
       </c>
       <c r="D13" t="n">
-        <v>230.37318160467</v>
+        <v>195.2135530670377</v>
       </c>
       <c r="E13" t="n">
-        <v>230.37318160467</v>
+        <v>195.2135530670377</v>
       </c>
       <c r="F13" t="n">
-        <v>230.37318160467</v>
+        <v>195.2135530670377</v>
       </c>
       <c r="G13" t="n">
-        <v>62.11912770411552</v>
+        <v>195.2135530670377</v>
       </c>
       <c r="H13" t="n">
-        <v>62.11912770411552</v>
+        <v>195.2135530670377</v>
       </c>
       <c r="I13" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K13" t="n">
         <v>143.9541688140574</v>
@@ -5241,10 +5241,10 @@
         <v>412.1480133083932</v>
       </c>
       <c r="X13" t="n">
-        <v>412.1480133083932</v>
+        <v>365.4186710010484</v>
       </c>
       <c r="Y13" t="n">
-        <v>230.37318160467</v>
+        <v>365.4186710010484</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>694.976372021858</v>
+        <v>1603.326179005899</v>
       </c>
       <c r="C14" t="n">
-        <v>301.8008705247885</v>
+        <v>1603.326179005899</v>
       </c>
       <c r="D14" t="n">
-        <v>65.31414138408775</v>
+        <v>1217.885050222566</v>
       </c>
       <c r="E14" t="n">
-        <v>65.31414138408775</v>
+        <v>1217.885050222566</v>
       </c>
       <c r="F14" t="n">
-        <v>65.31414138408775</v>
+        <v>800.9906117525441</v>
       </c>
       <c r="G14" t="n">
-        <v>65.31414138408775</v>
+        <v>387.9674613180119</v>
       </c>
       <c r="H14" t="n">
-        <v>65.31414138408775</v>
+        <v>65.31414138408778</v>
       </c>
       <c r="I14" t="n">
-        <v>65.31414138408775</v>
+        <v>65.31414138408778</v>
       </c>
       <c r="J14" t="n">
         <v>221.5769294881584</v>
       </c>
       <c r="K14" t="n">
-        <v>597.9641849296539</v>
+        <v>597.9641849296543</v>
       </c>
       <c r="L14" t="n">
         <v>1112.876793417776</v>
       </c>
       <c r="M14" t="n">
-        <v>1682.903306262564</v>
+        <v>1682.903306262565</v>
       </c>
       <c r="N14" t="n">
-        <v>2235.128962233346</v>
+        <v>2235.128962233347</v>
       </c>
       <c r="O14" t="n">
         <v>2698.222362609938</v>
       </c>
       <c r="P14" t="n">
-        <v>3066.085739232776</v>
+        <v>3066.085739232777</v>
       </c>
       <c r="Q14" t="n">
-        <v>3265.707069204388</v>
+        <v>3265.707069204389</v>
       </c>
       <c r="R14" t="n">
-        <v>3236.4836229372</v>
+        <v>3236.483622937201</v>
       </c>
       <c r="S14" t="n">
-        <v>3073.151318580977</v>
+        <v>3102.375337480435</v>
       </c>
       <c r="T14" t="n">
-        <v>2850.261837366995</v>
+        <v>3102.375337480435</v>
       </c>
       <c r="U14" t="n">
-        <v>2594.520276207791</v>
+        <v>3102.375337480435</v>
       </c>
       <c r="V14" t="n">
-        <v>2252.41346691131</v>
+        <v>2760.268528183953</v>
       </c>
       <c r="W14" t="n">
-        <v>1881.414431879597</v>
+        <v>2389.269493152241</v>
       </c>
       <c r="X14" t="n">
-        <v>1491.961826812654</v>
+        <v>1999.816888085297</v>
       </c>
       <c r="Y14" t="n">
-        <v>1095.471117733255</v>
+        <v>1603.326179005899</v>
       </c>
     </row>
     <row r="15">
@@ -5345,19 +5345,19 @@
         <v>444.1225950256469</v>
       </c>
       <c r="F15" t="n">
-        <v>319.6907889087787</v>
+        <v>319.6907889087788</v>
       </c>
       <c r="G15" t="n">
-        <v>199.7056662822319</v>
+        <v>199.705666282232</v>
       </c>
       <c r="H15" t="n">
         <v>112.1296492429138</v>
       </c>
       <c r="I15" t="n">
-        <v>65.31414138408775</v>
+        <v>65.31414138408778</v>
       </c>
       <c r="J15" t="n">
-        <v>178.4291236038151</v>
+        <v>178.4291236038152</v>
       </c>
       <c r="K15" t="n">
         <v>509.9898959200485</v>
@@ -5366,19 +5366,19 @@
         <v>1009.451617196166</v>
       </c>
       <c r="M15" t="n">
-        <v>1637.223266822847</v>
+        <v>1655.77272356006</v>
       </c>
       <c r="N15" t="n">
-        <v>1637.223266822847</v>
+        <v>1710.639563539329</v>
       </c>
       <c r="O15" t="n">
-        <v>2153.743549413828</v>
+        <v>1710.639563539329</v>
       </c>
       <c r="P15" t="n">
-        <v>2373.9507535372</v>
+        <v>2130.240614572237</v>
       </c>
       <c r="Q15" t="n">
-        <v>2373.9507535372</v>
+        <v>2373.950753537199</v>
       </c>
       <c r="R15" t="n">
         <v>2354.671371353205</v>
@@ -5412,46 +5412,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>598.4308663820052</v>
+        <v>65.31414138408778</v>
       </c>
       <c r="C16" t="n">
-        <v>598.4308663820052</v>
+        <v>65.31414138408778</v>
       </c>
       <c r="D16" t="n">
-        <v>598.4308663820052</v>
+        <v>65.31414138408778</v>
       </c>
       <c r="E16" t="n">
-        <v>545.5894601184208</v>
+        <v>65.31414138408778</v>
       </c>
       <c r="F16" t="n">
-        <v>545.5894601184208</v>
+        <v>65.31414138408778</v>
       </c>
       <c r="G16" t="n">
-        <v>377.3980282495405</v>
+        <v>65.31414138408778</v>
       </c>
       <c r="H16" t="n">
-        <v>222.476244001738</v>
+        <v>65.31414138408778</v>
       </c>
       <c r="I16" t="n">
-        <v>91.26503391861867</v>
+        <v>65.31414138408778</v>
       </c>
       <c r="J16" t="n">
-        <v>65.31414138408775</v>
+        <v>65.31414138408778</v>
       </c>
       <c r="K16" t="n">
         <v>154.2799407163664</v>
       </c>
       <c r="L16" t="n">
-        <v>327.5324960806274</v>
+        <v>327.5324960806275</v>
       </c>
       <c r="M16" t="n">
-        <v>523.4450183960239</v>
+        <v>523.445018396024</v>
       </c>
       <c r="N16" t="n">
-        <v>716.0268318604565</v>
+        <v>716.0268318604566</v>
       </c>
       <c r="O16" t="n">
-        <v>887.4067967770386</v>
+        <v>887.4067967770388</v>
       </c>
       <c r="P16" t="n">
         <v>1014.706093022316</v>
@@ -5463,25 +5463,25 @@
         <v>1023.26768015809</v>
       </c>
       <c r="S16" t="n">
-        <v>821.5429275653619</v>
+        <v>1023.26768015809</v>
       </c>
       <c r="T16" t="n">
-        <v>821.5429275653619</v>
+        <v>900.0592646430027</v>
       </c>
       <c r="U16" t="n">
-        <v>821.5429275653619</v>
+        <v>614.6238886320859</v>
       </c>
       <c r="V16" t="n">
-        <v>821.5429275653619</v>
+        <v>348.6445434529102</v>
       </c>
       <c r="W16" t="n">
-        <v>821.5429275653619</v>
+        <v>65.31414138408778</v>
       </c>
       <c r="X16" t="n">
-        <v>821.5429275653619</v>
+        <v>65.31414138408778</v>
       </c>
       <c r="Y16" t="n">
-        <v>598.4308663820052</v>
+        <v>65.31414138408778</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2532.040197545002</v>
+        <v>2079.269009346649</v>
       </c>
       <c r="C17" t="n">
-        <v>2138.864696047932</v>
+        <v>1686.09350784958</v>
       </c>
       <c r="D17" t="n">
-        <v>1753.4235672646</v>
+        <v>1300.652379066248</v>
       </c>
       <c r="E17" t="n">
-        <v>1350.840042381144</v>
+        <v>898.0688541827922</v>
       </c>
       <c r="F17" t="n">
-        <v>933.9456039111224</v>
+        <v>481.1744157127699</v>
       </c>
       <c r="G17" t="n">
-        <v>520.9224534765901</v>
+        <v>68.15126527823776</v>
       </c>
       <c r="H17" t="n">
-        <v>198.269133542666</v>
+        <v>65.31414138408778</v>
       </c>
       <c r="I17" t="n">
-        <v>65.31414138408775</v>
+        <v>65.31414138408778</v>
       </c>
       <c r="J17" t="n">
         <v>221.5769294881584</v>
       </c>
       <c r="K17" t="n">
-        <v>597.9641849296536</v>
+        <v>597.964184929654</v>
       </c>
       <c r="L17" t="n">
-        <v>1112.876793417775</v>
+        <v>1112.876793417776</v>
       </c>
       <c r="M17" t="n">
-        <v>1682.903306262564</v>
+        <v>1682.903306262565</v>
       </c>
       <c r="N17" t="n">
-        <v>2235.128962233346</v>
+        <v>2235.128962233347</v>
       </c>
       <c r="O17" t="n">
         <v>2698.222362609938</v>
       </c>
       <c r="P17" t="n">
-        <v>3066.085739232776</v>
+        <v>3066.085739232777</v>
       </c>
       <c r="Q17" t="n">
-        <v>3265.707069204388</v>
+        <v>3265.707069204389</v>
       </c>
       <c r="R17" t="n">
-        <v>3236.4836229372</v>
+        <v>3265.707069204389</v>
       </c>
       <c r="S17" t="n">
-        <v>3236.4836229372</v>
+        <v>3265.707069204389</v>
       </c>
       <c r="T17" t="n">
-        <v>3236.4836229372</v>
+        <v>3265.707069204389</v>
       </c>
       <c r="U17" t="n">
-        <v>3236.4836229372</v>
+        <v>3265.707069204389</v>
       </c>
       <c r="V17" t="n">
-        <v>3236.4836229372</v>
+        <v>3265.707069204389</v>
       </c>
       <c r="W17" t="n">
-        <v>3236.4836229372</v>
+        <v>3265.707069204389</v>
       </c>
       <c r="X17" t="n">
-        <v>3236.4836229372</v>
+        <v>2876.254464137445</v>
       </c>
       <c r="Y17" t="n">
-        <v>2932.534943256398</v>
+        <v>2479.763755058046</v>
       </c>
     </row>
     <row r="18">
@@ -5582,40 +5582,40 @@
         <v>444.1225950256469</v>
       </c>
       <c r="F18" t="n">
-        <v>319.6907889087787</v>
+        <v>319.6907889087788</v>
       </c>
       <c r="G18" t="n">
-        <v>199.7056662822319</v>
+        <v>199.705666282232</v>
       </c>
       <c r="H18" t="n">
         <v>112.1296492429138</v>
       </c>
       <c r="I18" t="n">
-        <v>65.31414138408775</v>
+        <v>65.31414138408778</v>
       </c>
       <c r="J18" t="n">
-        <v>168.2594813925811</v>
+        <v>178.4291236038152</v>
       </c>
       <c r="K18" t="n">
-        <v>168.2594813925811</v>
+        <v>509.9898959200485</v>
       </c>
       <c r="L18" t="n">
-        <v>168.2594813925811</v>
+        <v>1009.451617196166</v>
       </c>
       <c r="M18" t="n">
-        <v>796.0311310192623</v>
+        <v>1655.77272356006</v>
       </c>
       <c r="N18" t="n">
-        <v>1451.809102229821</v>
+        <v>2330.591100432036</v>
       </c>
       <c r="O18" t="n">
-        <v>1968.329384820802</v>
+        <v>2373.950753537199</v>
       </c>
       <c r="P18" t="n">
-        <v>2373.9507535372</v>
+        <v>2373.950753537199</v>
       </c>
       <c r="Q18" t="n">
-        <v>2373.9507535372</v>
+        <v>2373.950753537199</v>
       </c>
       <c r="R18" t="n">
         <v>2354.671371353205</v>
@@ -5649,46 +5649,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>65.31414138408775</v>
+        <v>676.964502370917</v>
       </c>
       <c r="C19" t="n">
-        <v>65.31414138408775</v>
+        <v>676.964502370917</v>
       </c>
       <c r="D19" t="n">
-        <v>65.31414138408775</v>
+        <v>676.964502370917</v>
       </c>
       <c r="E19" t="n">
-        <v>65.31414138408775</v>
+        <v>676.964502370917</v>
       </c>
       <c r="F19" t="n">
-        <v>65.31414138408775</v>
+        <v>519.6385675838899</v>
       </c>
       <c r="G19" t="n">
-        <v>65.31414138408775</v>
+        <v>351.4471357150096</v>
       </c>
       <c r="H19" t="n">
-        <v>65.31414138408775</v>
+        <v>196.5253514672071</v>
       </c>
       <c r="I19" t="n">
-        <v>65.31414138408775</v>
+        <v>65.31414138408778</v>
       </c>
       <c r="J19" t="n">
-        <v>65.31414138408775</v>
+        <v>65.31414138408778</v>
       </c>
       <c r="K19" t="n">
         <v>154.2799407163664</v>
       </c>
       <c r="L19" t="n">
-        <v>327.5324960806274</v>
+        <v>327.5324960806275</v>
       </c>
       <c r="M19" t="n">
-        <v>523.4450183960239</v>
+        <v>523.445018396024</v>
       </c>
       <c r="N19" t="n">
-        <v>716.0268318604565</v>
+        <v>716.0268318604566</v>
       </c>
       <c r="O19" t="n">
-        <v>887.4067967770386</v>
+        <v>887.4067967770388</v>
       </c>
       <c r="P19" t="n">
         <v>1014.706093022316</v>
@@ -5697,28 +5697,28 @@
         <v>1023.26768015809</v>
       </c>
       <c r="R19" t="n">
-        <v>902.1824050512186</v>
+        <v>902.1824050512189</v>
       </c>
       <c r="S19" t="n">
-        <v>700.4576524584904</v>
+        <v>902.1824050512189</v>
       </c>
       <c r="T19" t="n">
-        <v>634.079919463827</v>
+        <v>902.1824050512189</v>
       </c>
       <c r="U19" t="n">
-        <v>348.6445434529101</v>
+        <v>902.1824050512189</v>
       </c>
       <c r="V19" t="n">
-        <v>348.6445434529101</v>
+        <v>862.1725210622183</v>
       </c>
       <c r="W19" t="n">
-        <v>65.31414138408775</v>
+        <v>862.1725210622183</v>
       </c>
       <c r="X19" t="n">
-        <v>65.31414138408775</v>
+        <v>862.1725210622183</v>
       </c>
       <c r="Y19" t="n">
-        <v>65.31414138408775</v>
+        <v>862.1725210622183</v>
       </c>
     </row>
     <row r="20">
@@ -5728,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1266.361945485408</v>
+        <v>2475.302948125292</v>
       </c>
       <c r="C20" t="n">
-        <v>1266.361945485408</v>
+        <v>2082.127446628222</v>
       </c>
       <c r="D20" t="n">
-        <v>880.9208167020754</v>
+        <v>1696.68631784489</v>
       </c>
       <c r="E20" t="n">
-        <v>478.3372918186199</v>
+        <v>1294.102792961434</v>
       </c>
       <c r="F20" t="n">
-        <v>478.3372918186199</v>
+        <v>877.208354491412</v>
       </c>
       <c r="G20" t="n">
-        <v>65.31414138408775</v>
+        <v>464.1852040568799</v>
       </c>
       <c r="H20" t="n">
-        <v>65.31414138408775</v>
+        <v>141.5318841229557</v>
       </c>
       <c r="I20" t="n">
-        <v>65.31414138408775</v>
+        <v>65.31414138408776</v>
       </c>
       <c r="J20" t="n">
-        <v>221.5769294881586</v>
+        <v>221.5769294881584</v>
       </c>
       <c r="K20" t="n">
-        <v>597.9641849296542</v>
+        <v>597.964184929654</v>
       </c>
       <c r="L20" t="n">
         <v>1112.876793417776</v>
       </c>
       <c r="M20" t="n">
-        <v>1682.903306262565</v>
+        <v>1682.903306262564</v>
       </c>
       <c r="N20" t="n">
-        <v>2235.128962233347</v>
+        <v>2235.128962233346</v>
       </c>
       <c r="O20" t="n">
         <v>2698.222362609938</v>
@@ -5782,22 +5782,22 @@
         <v>3073.151318580977</v>
       </c>
       <c r="T20" t="n">
-        <v>2850.261837366995</v>
+        <v>3073.151318580977</v>
       </c>
       <c r="U20" t="n">
-        <v>2594.520276207791</v>
+        <v>2817.409757421773</v>
       </c>
       <c r="V20" t="n">
-        <v>2252.41346691131</v>
+        <v>2475.302948125292</v>
       </c>
       <c r="W20" t="n">
-        <v>2252.41346691131</v>
+        <v>2475.302948125292</v>
       </c>
       <c r="X20" t="n">
-        <v>1862.960861844366</v>
+        <v>2475.302948125292</v>
       </c>
       <c r="Y20" t="n">
-        <v>1666.856691196805</v>
+        <v>2475.302948125292</v>
       </c>
     </row>
     <row r="21">
@@ -5819,31 +5819,31 @@
         <v>444.1225950256469</v>
       </c>
       <c r="F21" t="n">
-        <v>319.6907889087787</v>
+        <v>319.6907889087788</v>
       </c>
       <c r="G21" t="n">
-        <v>199.7056662822319</v>
+        <v>199.705666282232</v>
       </c>
       <c r="H21" t="n">
         <v>112.1296492429138</v>
       </c>
       <c r="I21" t="n">
-        <v>65.31414138408775</v>
+        <v>65.31414138408776</v>
       </c>
       <c r="J21" t="n">
         <v>178.4291236038151</v>
       </c>
       <c r="K21" t="n">
-        <v>178.4291236038151</v>
+        <v>509.9898959200485</v>
       </c>
       <c r="L21" t="n">
-        <v>677.8908448799325</v>
+        <v>1009.451617196166</v>
       </c>
       <c r="M21" t="n">
-        <v>1324.211951243827</v>
+        <v>1655.77272356006</v>
       </c>
       <c r="N21" t="n">
-        <v>1857.430470946219</v>
+        <v>2330.591100432035</v>
       </c>
       <c r="O21" t="n">
         <v>2373.9507535372</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2501.895854833797</v>
+        <v>65.31414138408776</v>
       </c>
       <c r="C22" t="n">
-        <v>2501.895854833797</v>
+        <v>65.31414138408776</v>
       </c>
       <c r="D22" t="n">
-        <v>2501.895854833797</v>
+        <v>65.31414138408776</v>
       </c>
       <c r="E22" t="n">
-        <v>2501.895854833797</v>
+        <v>65.31414138408776</v>
       </c>
       <c r="F22" t="n">
-        <v>2501.895854833797</v>
+        <v>65.31414138408776</v>
       </c>
       <c r="G22" t="n">
-        <v>2333.704422964917</v>
+        <v>65.31414138408776</v>
       </c>
       <c r="H22" t="n">
-        <v>2333.704422964917</v>
+        <v>65.31414138408776</v>
       </c>
       <c r="I22" t="n">
-        <v>2333.704422964917</v>
+        <v>65.31414138408776</v>
       </c>
       <c r="J22" t="n">
-        <v>2307.753530430386</v>
+        <v>65.31414138408776</v>
       </c>
       <c r="K22" t="n">
-        <v>2396.719329762665</v>
+        <v>154.2799407163664</v>
       </c>
       <c r="L22" t="n">
-        <v>2569.971885126925</v>
+        <v>327.5324960806274</v>
       </c>
       <c r="M22" t="n">
-        <v>2765.884407442322</v>
+        <v>523.4450183960239</v>
       </c>
       <c r="N22" t="n">
-        <v>2958.466220906754</v>
+        <v>716.0268318604565</v>
       </c>
       <c r="O22" t="n">
-        <v>3129.846185823336</v>
+        <v>887.4067967770387</v>
       </c>
       <c r="P22" t="n">
-        <v>3257.145482068614</v>
+        <v>1014.706093022316</v>
       </c>
       <c r="Q22" t="n">
-        <v>3265.707069204388</v>
+        <v>1023.26768015809</v>
       </c>
       <c r="R22" t="n">
-        <v>3265.707069204388</v>
+        <v>902.1824050512188</v>
       </c>
       <c r="S22" t="n">
-        <v>3265.707069204388</v>
+        <v>902.1824050512188</v>
       </c>
       <c r="T22" t="n">
-        <v>3265.707069204388</v>
+        <v>902.1824050512188</v>
       </c>
       <c r="U22" t="n">
-        <v>2980.271693193471</v>
+        <v>616.7470290403019</v>
       </c>
       <c r="V22" t="n">
-        <v>2921.184195742115</v>
+        <v>350.7676838611261</v>
       </c>
       <c r="W22" t="n">
-        <v>2921.184195742115</v>
+        <v>67.43728179230374</v>
       </c>
       <c r="X22" t="n">
-        <v>2687.103873525098</v>
+        <v>67.43728179230374</v>
       </c>
       <c r="Y22" t="n">
-        <v>2687.103873525098</v>
+        <v>65.31414138408776</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1822.455099694094</v>
+        <v>2086.613754494874</v>
       </c>
       <c r="C23" t="n">
-        <v>1429.279598197025</v>
+        <v>1693.438252997805</v>
       </c>
       <c r="D23" t="n">
-        <v>1429.279598197025</v>
+        <v>1307.997124214473</v>
       </c>
       <c r="E23" t="n">
-        <v>1026.696073313569</v>
+        <v>905.4135993310172</v>
       </c>
       <c r="F23" t="n">
-        <v>609.8016348435468</v>
+        <v>488.5191608609949</v>
       </c>
       <c r="G23" t="n">
-        <v>393.8501056722426</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="H23" t="n">
         <v>75.96123154786345</v>
@@ -5992,49 +5992,49 @@
         <v>270.9233280874837</v>
       </c>
       <c r="K23" t="n">
-        <v>705.3108151130496</v>
+        <v>705.31081511305</v>
       </c>
       <c r="L23" t="n">
-        <v>1292.177839612517</v>
+        <v>1292.177839612518</v>
       </c>
       <c r="M23" t="n">
-        <v>1942.267504401618</v>
+        <v>1942.267504401619</v>
       </c>
       <c r="N23" t="n">
-        <v>2575.851817818621</v>
+        <v>2575.851817818622</v>
       </c>
       <c r="O23" t="n">
-        <v>3115.76989136177</v>
+        <v>3115.769891361771</v>
       </c>
       <c r="P23" t="n">
-        <v>3549.201349130635</v>
+        <v>3549.201349130636</v>
       </c>
       <c r="Q23" t="n">
-        <v>3798.061577393172</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="R23" t="n">
-        <v>3798.061577393172</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="S23" t="n">
-        <v>3798.061577393172</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="T23" t="n">
-        <v>3577.208601638122</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="U23" t="n">
-        <v>3321.50425816863</v>
+        <v>3615.158623649095</v>
       </c>
       <c r="V23" t="n">
-        <v>2979.397448872149</v>
+        <v>3273.051814352613</v>
       </c>
       <c r="W23" t="n">
-        <v>2608.398413840436</v>
+        <v>3273.051814352613</v>
       </c>
       <c r="X23" t="n">
-        <v>2218.945808773493</v>
+        <v>2883.59920928567</v>
       </c>
       <c r="Y23" t="n">
-        <v>1822.455099694094</v>
+        <v>2487.108500206271</v>
       </c>
     </row>
     <row r="24">
@@ -6056,7 +6056,7 @@
         <v>443.5466645234808</v>
       </c>
       <c r="F24" t="n">
-        <v>319.1148584066127</v>
+        <v>319.1148584066126</v>
       </c>
       <c r="G24" t="n">
         <v>199.3786510244077</v>
@@ -6068,25 +6068,25 @@
         <v>75.96123154786345</v>
       </c>
       <c r="J24" t="n">
-        <v>75.96123154786345</v>
+        <v>189.0762137675908</v>
       </c>
       <c r="K24" t="n">
-        <v>75.96123154786345</v>
+        <v>535.6890137915227</v>
       </c>
       <c r="L24" t="n">
-        <v>75.96123154786345</v>
+        <v>1019.255099689836</v>
       </c>
       <c r="M24" t="n">
-        <v>703.7328811745447</v>
+        <v>1019.255099689836</v>
       </c>
       <c r="N24" t="n">
-        <v>1359.510852385104</v>
+        <v>1019.255099689836</v>
       </c>
       <c r="O24" t="n">
-        <v>1876.031134976085</v>
+        <v>1611.238359252428</v>
       </c>
       <c r="P24" t="n">
-        <v>2117.911981055111</v>
+        <v>2077.425419922113</v>
       </c>
       <c r="Q24" t="n">
         <v>2352.277072610002</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3102.049506192364</v>
+        <v>834.8307059483216</v>
       </c>
       <c r="C25" t="n">
-        <v>3102.049506192364</v>
+        <v>834.8307059483216</v>
       </c>
       <c r="D25" t="n">
-        <v>3102.049506192364</v>
+        <v>834.8307059483216</v>
       </c>
       <c r="E25" t="n">
-        <v>3102.049506192364</v>
+        <v>679.2718938075241</v>
       </c>
       <c r="F25" t="n">
-        <v>2944.723571405337</v>
+        <v>521.945959020497</v>
       </c>
       <c r="G25" t="n">
-        <v>2776.740821715708</v>
+        <v>353.9632093308679</v>
       </c>
       <c r="H25" t="n">
-        <v>2776.740821715708</v>
+        <v>200.8967993676812</v>
       </c>
       <c r="I25" t="n">
-        <v>2651.80525389589</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="J25" t="n">
-        <v>2651.80525389589</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="K25" t="n">
-        <v>2764.533651243074</v>
+        <v>188.6896288950474</v>
       </c>
       <c r="L25" t="n">
-        <v>2968.194150890259</v>
+        <v>392.350128542232</v>
       </c>
       <c r="M25" t="n">
-        <v>3196.167586943607</v>
+        <v>620.3235645955795</v>
       </c>
       <c r="N25" t="n">
-        <v>3420.047977276967</v>
+        <v>844.2039549289402</v>
       </c>
       <c r="O25" t="n">
-        <v>3620.337243753467</v>
+        <v>1044.49322140544</v>
       </c>
       <c r="P25" t="n">
-        <v>3772.373441719425</v>
+        <v>1196.529419371398</v>
       </c>
       <c r="Q25" t="n">
-        <v>3798.061577393172</v>
+        <v>1222.217555045145</v>
       </c>
       <c r="R25" t="n">
-        <v>3798.061577393172</v>
+        <v>1110.515389561699</v>
       </c>
       <c r="S25" t="n">
-        <v>3798.061577393172</v>
+        <v>912.4273982201044</v>
       </c>
       <c r="T25" t="n">
-        <v>3798.061577393172</v>
+        <v>912.4273982201044</v>
       </c>
       <c r="U25" t="n">
-        <v>3798.061577393172</v>
+        <v>912.4273982201044</v>
       </c>
       <c r="V25" t="n">
-        <v>3793.699988135845</v>
+        <v>834.8307059483216</v>
       </c>
       <c r="W25" t="n">
-        <v>3510.369586067022</v>
+        <v>834.8307059483216</v>
       </c>
       <c r="X25" t="n">
-        <v>3510.369586067022</v>
+        <v>834.8307059483216</v>
       </c>
       <c r="Y25" t="n">
-        <v>3287.257524883666</v>
+        <v>834.8307059483216</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1987.608190149231</v>
+        <v>1575.0502608361</v>
       </c>
       <c r="C26" t="n">
-        <v>1594.432688652162</v>
+        <v>1181.87475933903</v>
       </c>
       <c r="D26" t="n">
-        <v>1208.99155986883</v>
+        <v>796.4336305556981</v>
       </c>
       <c r="E26" t="n">
-        <v>806.4080349853741</v>
+        <v>393.8501056722426</v>
       </c>
       <c r="F26" t="n">
-        <v>806.4080349853741</v>
+        <v>393.8501056722426</v>
       </c>
       <c r="G26" t="n">
         <v>393.8501056722426</v>
@@ -6229,19 +6229,19 @@
         <v>270.9233280874836</v>
       </c>
       <c r="K26" t="n">
-        <v>705.3108151130496</v>
+        <v>705.3108151130497</v>
       </c>
       <c r="L26" t="n">
         <v>1292.177839612517</v>
       </c>
       <c r="M26" t="n">
-        <v>1942.267504401618</v>
+        <v>1942.267504401619</v>
       </c>
       <c r="N26" t="n">
         <v>2575.851817818621</v>
       </c>
       <c r="O26" t="n">
-        <v>3115.76989136177</v>
+        <v>3115.769891361771</v>
       </c>
       <c r="P26" t="n">
         <v>3549.201349130635</v>
@@ -6256,22 +6256,22 @@
         <v>3798.061577393172</v>
       </c>
       <c r="T26" t="n">
-        <v>3798.061577393172</v>
+        <v>3577.208601638122</v>
       </c>
       <c r="U26" t="n">
-        <v>3798.061577393172</v>
+        <v>3321.50425816863</v>
       </c>
       <c r="V26" t="n">
-        <v>3545.045285038683</v>
+        <v>2979.397448872149</v>
       </c>
       <c r="W26" t="n">
-        <v>3174.046250006971</v>
+        <v>2608.398413840436</v>
       </c>
       <c r="X26" t="n">
-        <v>2784.593644940027</v>
+        <v>2218.945808773493</v>
       </c>
       <c r="Y26" t="n">
-        <v>2388.102935860628</v>
+        <v>1975.545006547497</v>
       </c>
     </row>
     <row r="27">
@@ -6293,7 +6293,7 @@
         <v>443.5466645234808</v>
       </c>
       <c r="F27" t="n">
-        <v>319.1148584066127</v>
+        <v>319.1148584066126</v>
       </c>
       <c r="G27" t="n">
         <v>199.3786510244077</v>
@@ -6305,25 +6305,25 @@
         <v>75.96123154786345</v>
       </c>
       <c r="J27" t="n">
-        <v>75.96123154786345</v>
+        <v>189.0762137675908</v>
       </c>
       <c r="K27" t="n">
-        <v>395.7003776100899</v>
+        <v>189.0762137675908</v>
       </c>
       <c r="L27" t="n">
-        <v>948.1328464416456</v>
+        <v>189.0762137675908</v>
       </c>
       <c r="M27" t="n">
-        <v>1656.268316733985</v>
+        <v>280.9863166106101</v>
       </c>
       <c r="N27" t="n">
-        <v>1656.268316733985</v>
+        <v>1019.255099689836</v>
       </c>
       <c r="O27" t="n">
-        <v>1656.268316733985</v>
+        <v>1611.238359252428</v>
       </c>
       <c r="P27" t="n">
-        <v>2122.45537740367</v>
+        <v>2077.425419922113</v>
       </c>
       <c r="Q27" t="n">
         <v>2352.277072610002</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2972.854413548706</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="C28" t="n">
-        <v>2972.854413548706</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="D28" t="n">
-        <v>2972.854413548706</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="E28" t="n">
-        <v>2972.854413548706</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="F28" t="n">
-        <v>2972.854413548706</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="G28" t="n">
-        <v>2804.871663859077</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="H28" t="n">
-        <v>2651.80525389589</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="I28" t="n">
-        <v>2651.80525389589</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="J28" t="n">
-        <v>2651.80525389589</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="K28" t="n">
-        <v>2764.533651243074</v>
+        <v>188.6896288950474</v>
       </c>
       <c r="L28" t="n">
-        <v>2968.194150890259</v>
+        <v>392.350128542232</v>
       </c>
       <c r="M28" t="n">
-        <v>3196.167586943607</v>
+        <v>620.3235645955795</v>
       </c>
       <c r="N28" t="n">
-        <v>3420.047977276967</v>
+        <v>844.2039549289402</v>
       </c>
       <c r="O28" t="n">
-        <v>3620.337243753467</v>
+        <v>1044.49322140544</v>
       </c>
       <c r="P28" t="n">
-        <v>3772.373441719425</v>
+        <v>1196.529419371398</v>
       </c>
       <c r="Q28" t="n">
-        <v>3798.061577393172</v>
+        <v>1222.217555045145</v>
       </c>
       <c r="R28" t="n">
-        <v>3798.061577393172</v>
+        <v>1222.217555045145</v>
       </c>
       <c r="S28" t="n">
-        <v>3798.061577393172</v>
+        <v>1222.217555045145</v>
       </c>
       <c r="T28" t="n">
-        <v>3798.061577393172</v>
+        <v>987.6577121146066</v>
       </c>
       <c r="U28" t="n">
-        <v>3798.061577393172</v>
+        <v>702.2337187680125</v>
       </c>
       <c r="V28" t="n">
-        <v>3675.473156525847</v>
+        <v>436.2543735888368</v>
       </c>
       <c r="W28" t="n">
-        <v>3392.142754457025</v>
+        <v>152.9239715200144</v>
       </c>
       <c r="X28" t="n">
-        <v>3158.062432240008</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="Y28" t="n">
-        <v>3158.062432240008</v>
+        <v>75.96123154786345</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2135.239200221878</v>
+        <v>1867.040428696366</v>
       </c>
       <c r="C29" t="n">
-        <v>1808.457807873582</v>
+        <v>1473.864927199297</v>
       </c>
       <c r="D29" t="n">
-        <v>1423.01667909025</v>
+        <v>1307.997124214473</v>
       </c>
       <c r="E29" t="n">
-        <v>1020.433154206794</v>
+        <v>905.4135993310172</v>
       </c>
       <c r="F29" t="n">
-        <v>603.5387157367721</v>
+        <v>488.5191608609949</v>
       </c>
       <c r="G29" t="n">
-        <v>190.9807864236407</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="H29" t="n">
-        <v>190.9807864236407</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="I29" t="n">
         <v>75.96123154786345</v>
@@ -6466,19 +6466,19 @@
         <v>270.9233280874836</v>
       </c>
       <c r="K29" t="n">
-        <v>705.3108151130497</v>
+        <v>705.3108151130496</v>
       </c>
       <c r="L29" t="n">
         <v>1292.177839612517</v>
       </c>
       <c r="M29" t="n">
-        <v>1942.267504401619</v>
+        <v>1942.267504401618</v>
       </c>
       <c r="N29" t="n">
         <v>2575.851817818621</v>
       </c>
       <c r="O29" t="n">
-        <v>3115.769891361771</v>
+        <v>3115.76989136177</v>
       </c>
       <c r="P29" t="n">
         <v>3549.201349130635</v>
@@ -6493,22 +6493,22 @@
         <v>3645.330499340868</v>
       </c>
       <c r="T29" t="n">
-        <v>3645.330499340868</v>
+        <v>3424.477523585818</v>
       </c>
       <c r="U29" t="n">
-        <v>3645.330499340868</v>
+        <v>3424.477523585818</v>
       </c>
       <c r="V29" t="n">
-        <v>3303.223690044386</v>
+        <v>3424.477523585818</v>
       </c>
       <c r="W29" t="n">
-        <v>2932.224655012674</v>
+        <v>3053.478488554105</v>
       </c>
       <c r="X29" t="n">
-        <v>2932.224655012674</v>
+        <v>2664.025883487162</v>
       </c>
       <c r="Y29" t="n">
-        <v>2535.733945933275</v>
+        <v>2267.535174407763</v>
       </c>
     </row>
     <row r="30">
@@ -6530,7 +6530,7 @@
         <v>443.5466645234808</v>
       </c>
       <c r="F30" t="n">
-        <v>319.1148584066126</v>
+        <v>319.1148584066127</v>
       </c>
       <c r="G30" t="n">
         <v>199.3786510244077</v>
@@ -6542,22 +6542,22 @@
         <v>75.96123154786345</v>
       </c>
       <c r="J30" t="n">
-        <v>75.96123154786345</v>
+        <v>189.0762137675908</v>
       </c>
       <c r="K30" t="n">
-        <v>75.96123154786345</v>
+        <v>508.8153598298173</v>
       </c>
       <c r="L30" t="n">
-        <v>628.3937003794192</v>
+        <v>1061.247828661373</v>
       </c>
       <c r="M30" t="n">
-        <v>1336.529170671759</v>
+        <v>1689.019478288054</v>
       </c>
       <c r="N30" t="n">
-        <v>1336.529170671759</v>
+        <v>2352.277072610002</v>
       </c>
       <c r="O30" t="n">
-        <v>1928.512430234351</v>
+        <v>2352.277072610002</v>
       </c>
       <c r="P30" t="n">
         <v>2352.277072610002</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>238.1663822472421</v>
+        <v>386.3535762980773</v>
       </c>
       <c r="C31" t="n">
-        <v>238.1663822472421</v>
+        <v>386.3535762980773</v>
       </c>
       <c r="D31" t="n">
-        <v>238.1663822472421</v>
+        <v>386.3535762980773</v>
       </c>
       <c r="E31" t="n">
-        <v>238.1663822472421</v>
+        <v>386.3535762980773</v>
       </c>
       <c r="F31" t="n">
-        <v>238.1663822472421</v>
+        <v>229.0276415110502</v>
       </c>
       <c r="G31" t="n">
-        <v>75.96123154786345</v>
+        <v>229.0276415110502</v>
       </c>
       <c r="H31" t="n">
         <v>75.96123154786345</v>
@@ -6624,16 +6624,16 @@
         <v>75.96123154786345</v>
       </c>
       <c r="K31" t="n">
-        <v>188.6896288950475</v>
+        <v>188.6896288950474</v>
       </c>
       <c r="L31" t="n">
         <v>392.350128542232</v>
       </c>
       <c r="M31" t="n">
-        <v>620.3235645955795</v>
+        <v>620.3235645955793</v>
       </c>
       <c r="N31" t="n">
-        <v>844.2039549289402</v>
+        <v>844.20395492894</v>
       </c>
       <c r="O31" t="n">
         <v>1044.49322140544</v>
@@ -6651,22 +6651,22 @@
         <v>1024.129563703551</v>
       </c>
       <c r="T31" t="n">
-        <v>789.5697207730119</v>
+        <v>1024.129563703551</v>
       </c>
       <c r="U31" t="n">
-        <v>504.1457274264179</v>
+        <v>903.7643005839166</v>
       </c>
       <c r="V31" t="n">
-        <v>238.1663822472421</v>
+        <v>903.7643005839166</v>
       </c>
       <c r="W31" t="n">
-        <v>238.1663822472421</v>
+        <v>620.4338985150941</v>
       </c>
       <c r="X31" t="n">
-        <v>238.1663822472421</v>
+        <v>386.3535762980773</v>
       </c>
       <c r="Y31" t="n">
-        <v>238.1663822472421</v>
+        <v>386.3535762980773</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2519.522183495031</v>
+        <v>2201.633309370652</v>
       </c>
       <c r="C32" t="n">
-        <v>2126.346681997961</v>
+        <v>1808.457807873582</v>
       </c>
       <c r="D32" t="n">
-        <v>1740.905553214629</v>
+        <v>1423.01667909025</v>
       </c>
       <c r="E32" t="n">
-        <v>1338.322028331173</v>
+        <v>1020.433154206794</v>
       </c>
       <c r="F32" t="n">
-        <v>921.4275898611513</v>
+        <v>603.5387157367721</v>
       </c>
       <c r="G32" t="n">
-        <v>508.8696605480199</v>
+        <v>190.9807864236407</v>
       </c>
       <c r="H32" t="n">
         <v>190.9807864236407</v>
       </c>
       <c r="I32" t="n">
-        <v>75.96123154786346</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="J32" t="n">
-        <v>270.9233280874842</v>
+        <v>270.9233280874836</v>
       </c>
       <c r="K32" t="n">
-        <v>705.31081511305</v>
+        <v>705.3108151130497</v>
       </c>
       <c r="L32" t="n">
         <v>1292.177839612517</v>
@@ -6718,34 +6718,34 @@
         <v>3115.769891361771</v>
       </c>
       <c r="P32" t="n">
-        <v>3549.201349130636</v>
+        <v>3549.201349130635</v>
       </c>
       <c r="Q32" t="n">
-        <v>3798.061577393173</v>
+        <v>3798.061577393172</v>
       </c>
       <c r="R32" t="n">
-        <v>3798.061577393173</v>
+        <v>3798.061577393172</v>
       </c>
       <c r="S32" t="n">
-        <v>3798.061577393173</v>
+        <v>3645.330499340868</v>
       </c>
       <c r="T32" t="n">
-        <v>3798.061577393173</v>
+        <v>3645.330499340868</v>
       </c>
       <c r="U32" t="n">
-        <v>3658.614447582308</v>
+        <v>3645.330499340868</v>
       </c>
       <c r="V32" t="n">
-        <v>3316.507638285826</v>
+        <v>3388.071369228391</v>
       </c>
       <c r="W32" t="n">
-        <v>3316.507638285826</v>
+        <v>3388.071369228391</v>
       </c>
       <c r="X32" t="n">
-        <v>3316.507638285826</v>
+        <v>2998.618764161447</v>
       </c>
       <c r="Y32" t="n">
-        <v>2920.016929206427</v>
+        <v>2602.128055082048</v>
       </c>
     </row>
     <row r="33">
@@ -6776,28 +6776,28 @@
         <v>114.206631213339</v>
       </c>
       <c r="I33" t="n">
-        <v>75.96123154786346</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="J33" t="n">
-        <v>219.0418890481681</v>
+        <v>189.0762137675908</v>
       </c>
       <c r="K33" t="n">
-        <v>589.997147027437</v>
+        <v>508.8153598298173</v>
       </c>
       <c r="L33" t="n">
-        <v>589.997147027437</v>
+        <v>992.3814457281305</v>
       </c>
       <c r="M33" t="n">
-        <v>822.6363542519064</v>
+        <v>1696.499101399443</v>
       </c>
       <c r="N33" t="n">
-        <v>1560.905137331132</v>
+        <v>2352.277072610002</v>
       </c>
       <c r="O33" t="n">
-        <v>2077.425419922113</v>
+        <v>2352.277072610002</v>
       </c>
       <c r="P33" t="n">
-        <v>2077.425419922113</v>
+        <v>2352.277072610002</v>
       </c>
       <c r="Q33" t="n">
         <v>2352.277072610002</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3580.954147187048</v>
+        <v>358.2227341547082</v>
       </c>
       <c r="C34" t="n">
-        <v>3410.749029253037</v>
+        <v>358.2227341547082</v>
       </c>
       <c r="D34" t="n">
-        <v>3255.115916155552</v>
+        <v>358.2227341547082</v>
       </c>
       <c r="E34" t="n">
-        <v>3255.115916155552</v>
+        <v>358.2227341547082</v>
       </c>
       <c r="F34" t="n">
-        <v>3097.789981368525</v>
+        <v>200.8967993676811</v>
       </c>
       <c r="G34" t="n">
-        <v>2929.807231678896</v>
+        <v>200.8967993676811</v>
       </c>
       <c r="H34" t="n">
-        <v>2776.740821715709</v>
+        <v>200.8967993676811</v>
       </c>
       <c r="I34" t="n">
-        <v>2651.805253895891</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="J34" t="n">
-        <v>2651.805253895891</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="K34" t="n">
-        <v>2764.533651243075</v>
+        <v>188.6896288950475</v>
       </c>
       <c r="L34" t="n">
-        <v>2968.19415089026</v>
+        <v>392.350128542232</v>
       </c>
       <c r="M34" t="n">
-        <v>3196.167586943608</v>
+        <v>620.3235645955795</v>
       </c>
       <c r="N34" t="n">
-        <v>3420.047977276968</v>
+        <v>844.2039549289402</v>
       </c>
       <c r="O34" t="n">
-        <v>3620.337243753468</v>
+        <v>1044.49322140544</v>
       </c>
       <c r="P34" t="n">
-        <v>3772.373441719426</v>
+        <v>1196.529419371398</v>
       </c>
       <c r="Q34" t="n">
-        <v>3798.061577393173</v>
+        <v>1222.217555045145</v>
       </c>
       <c r="R34" t="n">
-        <v>3798.061577393173</v>
+        <v>1110.515389561699</v>
       </c>
       <c r="S34" t="n">
-        <v>3798.061577393173</v>
+        <v>1110.515389561699</v>
       </c>
       <c r="T34" t="n">
-        <v>3798.061577393173</v>
+        <v>1110.515389561699</v>
       </c>
       <c r="U34" t="n">
-        <v>3798.061577393173</v>
+        <v>1110.515389561699</v>
       </c>
       <c r="V34" t="n">
-        <v>3798.061577393173</v>
+        <v>844.5360443825233</v>
       </c>
       <c r="W34" t="n">
-        <v>3798.061577393173</v>
+        <v>561.205642313701</v>
       </c>
       <c r="X34" t="n">
-        <v>3798.061577393173</v>
+        <v>358.2227341547082</v>
       </c>
       <c r="Y34" t="n">
-        <v>3766.162165878349</v>
+        <v>358.2227341547082</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1717.186616241676</v>
+        <v>2135.066198310891</v>
       </c>
       <c r="C35" t="n">
-        <v>1324.011114744607</v>
+        <v>1741.890696813822</v>
       </c>
       <c r="D35" t="n">
-        <v>1324.011114744607</v>
+        <v>1356.449568030489</v>
       </c>
       <c r="E35" t="n">
-        <v>921.4275898611513</v>
+        <v>953.8660431470339</v>
       </c>
       <c r="F35" t="n">
-        <v>921.4275898611513</v>
+        <v>536.9716046770117</v>
       </c>
       <c r="G35" t="n">
-        <v>508.8696605480199</v>
+        <v>190.9807864236407</v>
       </c>
       <c r="H35" t="n">
         <v>190.9807864236407</v>
@@ -6937,10 +6937,10 @@
         <v>75.96123154786345</v>
       </c>
       <c r="J35" t="n">
-        <v>270.9233280874836</v>
+        <v>270.9233280874837</v>
       </c>
       <c r="K35" t="n">
-        <v>705.3108151130497</v>
+        <v>705.31081511305</v>
       </c>
       <c r="L35" t="n">
         <v>1292.177839612517</v>
@@ -6955,34 +6955,34 @@
         <v>3115.769891361771</v>
       </c>
       <c r="P35" t="n">
-        <v>3549.201349130635</v>
+        <v>3549.201349130636</v>
       </c>
       <c r="Q35" t="n">
-        <v>3798.061577393172</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="R35" t="n">
-        <v>3798.061577393172</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="S35" t="n">
-        <v>3798.061577393172</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="T35" t="n">
-        <v>3577.208601638122</v>
+        <v>3577.208601638123</v>
       </c>
       <c r="U35" t="n">
-        <v>3577.208601638122</v>
+        <v>3321.50425816863</v>
       </c>
       <c r="V35" t="n">
-        <v>3235.101792341641</v>
+        <v>3321.50425816863</v>
       </c>
       <c r="W35" t="n">
-        <v>2864.102757309928</v>
+        <v>3321.50425816863</v>
       </c>
       <c r="X35" t="n">
-        <v>2514.172071032472</v>
+        <v>2932.051653101687</v>
       </c>
       <c r="Y35" t="n">
-        <v>2117.681361953073</v>
+        <v>2535.560944022288</v>
       </c>
     </row>
     <row r="36">
@@ -7016,22 +7016,22 @@
         <v>75.96123154786345</v>
       </c>
       <c r="J36" t="n">
-        <v>75.96123154786345</v>
+        <v>189.0762137675908</v>
       </c>
       <c r="K36" t="n">
-        <v>446.9164895271324</v>
+        <v>508.8153598298173</v>
       </c>
       <c r="L36" t="n">
-        <v>930.4825754254457</v>
+        <v>992.3814457281305</v>
       </c>
       <c r="M36" t="n">
-        <v>930.4825754254457</v>
+        <v>1696.499101399443</v>
       </c>
       <c r="N36" t="n">
-        <v>1668.751358504672</v>
+        <v>2352.277072610002</v>
       </c>
       <c r="O36" t="n">
-        <v>1886.090011940317</v>
+        <v>2352.277072610002</v>
       </c>
       <c r="P36" t="n">
         <v>2352.277072610002</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>438.8274855801304</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="C37" t="n">
-        <v>358.2227341547082</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="D37" t="n">
-        <v>358.2227341547082</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="E37" t="n">
-        <v>358.2227341547082</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="F37" t="n">
-        <v>200.8967993676811</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="G37" t="n">
-        <v>200.8967993676811</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="H37" t="n">
-        <v>200.8967993676811</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="I37" t="n">
         <v>75.96123154786345</v>
@@ -7125,22 +7125,22 @@
         <v>1222.217555045145</v>
       </c>
       <c r="T37" t="n">
-        <v>1222.217555045145</v>
+        <v>1144.775294359473</v>
       </c>
       <c r="U37" t="n">
-        <v>1222.217555045145</v>
+        <v>859.3513010128785</v>
       </c>
       <c r="V37" t="n">
-        <v>956.2382098659697</v>
+        <v>593.3719558337027</v>
       </c>
       <c r="W37" t="n">
-        <v>672.9078077971474</v>
+        <v>310.0415537648803</v>
       </c>
       <c r="X37" t="n">
-        <v>438.8274855801304</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="Y37" t="n">
-        <v>438.8274855801304</v>
+        <v>75.96123154786345</v>
       </c>
     </row>
     <row r="38">
@@ -7150,31 +7150,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1745.786595154935</v>
+        <v>2019.771506748671</v>
       </c>
       <c r="C38" t="n">
-        <v>1352.611093657865</v>
+        <v>1626.596005251602</v>
       </c>
       <c r="D38" t="n">
-        <v>967.1699648745332</v>
+        <v>1241.15487646827</v>
       </c>
       <c r="E38" t="n">
-        <v>967.1699648745332</v>
+        <v>838.571351584814</v>
       </c>
       <c r="F38" t="n">
-        <v>603.5387157367721</v>
+        <v>421.6769131147918</v>
       </c>
       <c r="G38" t="n">
-        <v>190.9807864236407</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="H38" t="n">
-        <v>190.9807864236407</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="I38" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="J38" t="n">
-        <v>270.9233280874837</v>
+        <v>270.9233280874842</v>
       </c>
       <c r="K38" t="n">
         <v>705.31081511305</v>
@@ -7201,25 +7201,25 @@
         <v>3798.061577393173</v>
       </c>
       <c r="S38" t="n">
-        <v>3645.330499340868</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="T38" t="n">
-        <v>3645.330499340868</v>
+        <v>3577.208601638123</v>
       </c>
       <c r="U38" t="n">
-        <v>3645.330499340868</v>
+        <v>3577.208601638123</v>
       </c>
       <c r="V38" t="n">
-        <v>3303.223690044387</v>
+        <v>3577.208601638123</v>
       </c>
       <c r="W38" t="n">
-        <v>2932.224655012674</v>
+        <v>3206.209566606411</v>
       </c>
       <c r="X38" t="n">
-        <v>2542.772049945731</v>
+        <v>2816.756961539467</v>
       </c>
       <c r="Y38" t="n">
-        <v>2146.281340866332</v>
+        <v>2420.266252460068</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2306.52085801419</v>
+        <v>860.7363532310205</v>
       </c>
       <c r="C39" t="n">
-        <v>2155.866627574283</v>
+        <v>710.0821227911127</v>
       </c>
       <c r="D39" t="n">
-        <v>2025.777660195763</v>
+        <v>579.9931554125931</v>
       </c>
       <c r="E39" t="n">
-        <v>1889.331169306651</v>
+        <v>443.5466645234808</v>
       </c>
       <c r="F39" t="n">
-        <v>1764.899363189782</v>
+        <v>319.1148584066126</v>
       </c>
       <c r="G39" t="n">
-        <v>1645.163155807578</v>
+        <v>199.3786510244077</v>
       </c>
       <c r="H39" t="n">
-        <v>1559.991135996509</v>
+        <v>114.206631213339</v>
       </c>
       <c r="I39" t="n">
-        <v>1521.745736331033</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="J39" t="n">
-        <v>1521.745736331033</v>
+        <v>189.0762137675908</v>
       </c>
       <c r="K39" t="n">
-        <v>1892.700994310302</v>
+        <v>560.0314717468598</v>
       </c>
       <c r="L39" t="n">
-        <v>2062.188166034957</v>
+        <v>1068.727451772762</v>
       </c>
       <c r="M39" t="n">
-        <v>2062.188166034957</v>
+        <v>1696.499101399443</v>
       </c>
       <c r="N39" t="n">
-        <v>2800.456949114183</v>
+        <v>2352.277072610002</v>
       </c>
       <c r="O39" t="n">
-        <v>3392.440208676775</v>
+        <v>2352.277072610002</v>
       </c>
       <c r="P39" t="n">
-        <v>3798.061577393173</v>
+        <v>2352.277072610002</v>
       </c>
       <c r="Q39" t="n">
-        <v>3798.061577393173</v>
+        <v>2352.277072610002</v>
       </c>
       <c r="R39" t="n">
-        <v>3794.236775028932</v>
+        <v>2348.452270245762</v>
       </c>
       <c r="S39" t="n">
-        <v>3665.317021885013</v>
+        <v>2219.532517101843</v>
       </c>
       <c r="T39" t="n">
-        <v>3489.637587679142</v>
+        <v>2043.853082895972</v>
       </c>
       <c r="U39" t="n">
-        <v>3279.59573452528</v>
+        <v>1833.811229742109</v>
       </c>
       <c r="V39" t="n">
-        <v>3057.055732896346</v>
+        <v>1611.271228113176</v>
       </c>
       <c r="W39" t="n">
-        <v>2826.938487029633</v>
+        <v>1381.153982246463</v>
       </c>
       <c r="X39" t="n">
-        <v>2637.631409379645</v>
+        <v>1191.846904596475</v>
       </c>
       <c r="Y39" t="n">
-        <v>2458.317192455152</v>
+        <v>1012.532687671982</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3378.773236484854</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="C40" t="n">
-        <v>3208.568118550844</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="D40" t="n">
-        <v>3052.935005453358</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="E40" t="n">
-        <v>2897.376193312561</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="F40" t="n">
-        <v>2897.376193312561</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="G40" t="n">
-        <v>2729.393443622931</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="H40" t="n">
-        <v>2663.002316357357</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="I40" t="n">
-        <v>2663.002316357357</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="J40" t="n">
-        <v>2651.80525389589</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="K40" t="n">
-        <v>2764.533651243074</v>
+        <v>188.6896288950475</v>
       </c>
       <c r="L40" t="n">
-        <v>2968.194150890259</v>
+        <v>392.350128542232</v>
       </c>
       <c r="M40" t="n">
-        <v>3196.167586943607</v>
+        <v>620.3235645955795</v>
       </c>
       <c r="N40" t="n">
-        <v>3420.047977276968</v>
+        <v>844.2039549289402</v>
       </c>
       <c r="O40" t="n">
-        <v>3620.337243753468</v>
+        <v>1044.49322140544</v>
       </c>
       <c r="P40" t="n">
-        <v>3772.373441719426</v>
+        <v>1196.529419371398</v>
       </c>
       <c r="Q40" t="n">
-        <v>3798.061577393173</v>
+        <v>1222.217555045145</v>
       </c>
       <c r="R40" t="n">
-        <v>3798.061577393173</v>
+        <v>1222.217555045145</v>
       </c>
       <c r="S40" t="n">
-        <v>3798.061577393173</v>
+        <v>1222.217555045145</v>
       </c>
       <c r="T40" t="n">
-        <v>3798.061577393173</v>
+        <v>1222.217555045145</v>
       </c>
       <c r="U40" t="n">
-        <v>3798.061577393173</v>
+        <v>936.7935616985515</v>
       </c>
       <c r="V40" t="n">
-        <v>3798.061577393173</v>
+        <v>670.8142165193757</v>
       </c>
       <c r="W40" t="n">
-        <v>3798.061577393173</v>
+        <v>387.4838144505533</v>
       </c>
       <c r="X40" t="n">
-        <v>3563.981255176156</v>
+        <v>153.4034922335364</v>
       </c>
       <c r="Y40" t="n">
-        <v>3563.981255176156</v>
+        <v>75.96123154786346</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1717.186616241676</v>
+        <v>2201.633309370652</v>
       </c>
       <c r="C41" t="n">
-        <v>1324.011114744607</v>
+        <v>1808.457807873582</v>
       </c>
       <c r="D41" t="n">
-        <v>1324.011114744607</v>
+        <v>1423.01667909025</v>
       </c>
       <c r="E41" t="n">
-        <v>921.4275898611513</v>
+        <v>1020.433154206794</v>
       </c>
       <c r="F41" t="n">
-        <v>921.4275898611513</v>
+        <v>603.5387157367721</v>
       </c>
       <c r="G41" t="n">
-        <v>508.8696605480199</v>
+        <v>190.9807864236407</v>
       </c>
       <c r="H41" t="n">
         <v>190.9807864236407</v>
       </c>
       <c r="I41" t="n">
-        <v>75.96123154786346</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="J41" t="n">
-        <v>270.9233280874842</v>
+        <v>270.9233280874832</v>
       </c>
       <c r="K41" t="n">
-        <v>705.31081511305</v>
+        <v>705.3108151130493</v>
       </c>
       <c r="L41" t="n">
         <v>1292.177839612517</v>
@@ -7429,34 +7429,34 @@
         <v>3115.769891361771</v>
       </c>
       <c r="P41" t="n">
-        <v>3549.201349130636</v>
+        <v>3549.201349130635</v>
       </c>
       <c r="Q41" t="n">
-        <v>3798.061577393173</v>
+        <v>3798.061577393172</v>
       </c>
       <c r="R41" t="n">
-        <v>3798.061577393173</v>
+        <v>3798.061577393172</v>
       </c>
       <c r="S41" t="n">
-        <v>3645.330499340869</v>
+        <v>3759.070404260103</v>
       </c>
       <c r="T41" t="n">
-        <v>3645.330499340869</v>
+        <v>3759.070404260103</v>
       </c>
       <c r="U41" t="n">
-        <v>3389.626155871377</v>
+        <v>3759.070404260103</v>
       </c>
       <c r="V41" t="n">
-        <v>3274.623711131128</v>
+        <v>3759.070404260103</v>
       </c>
       <c r="W41" t="n">
-        <v>2903.624676099415</v>
+        <v>3388.071369228391</v>
       </c>
       <c r="X41" t="n">
-        <v>2514.172071032472</v>
+        <v>2998.618764161447</v>
       </c>
       <c r="Y41" t="n">
-        <v>2117.681361953073</v>
+        <v>2602.128055082048</v>
       </c>
     </row>
     <row r="42">
@@ -7487,25 +7487,25 @@
         <v>114.206631213339</v>
       </c>
       <c r="I42" t="n">
-        <v>75.96123154786346</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="J42" t="n">
-        <v>75.96123154786346</v>
+        <v>189.0762137675908</v>
       </c>
       <c r="K42" t="n">
-        <v>75.96123154786346</v>
+        <v>353.4403504068808</v>
       </c>
       <c r="L42" t="n">
-        <v>75.96123154786346</v>
+        <v>905.8728192384366</v>
       </c>
       <c r="M42" t="n">
-        <v>703.7328811745447</v>
+        <v>1614.008289530776</v>
       </c>
       <c r="N42" t="n">
-        <v>1430.135421302623</v>
+        <v>2352.277072610002</v>
       </c>
       <c r="O42" t="n">
-        <v>1946.655703893605</v>
+        <v>2352.277072610002</v>
       </c>
       <c r="P42" t="n">
         <v>2352.277072610002</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3458.510981544841</v>
+        <v>714.6842095071841</v>
       </c>
       <c r="C43" t="n">
-        <v>3288.30586361083</v>
+        <v>544.4790915731733</v>
       </c>
       <c r="D43" t="n">
-        <v>3132.672750513345</v>
+        <v>388.845978475688</v>
       </c>
       <c r="E43" t="n">
-        <v>2977.113938372548</v>
+        <v>233.2871663348905</v>
       </c>
       <c r="F43" t="n">
-        <v>2819.788003585521</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="G43" t="n">
-        <v>2651.805253895891</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="H43" t="n">
-        <v>2651.805253895891</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="I43" t="n">
-        <v>2651.805253895891</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="J43" t="n">
-        <v>2651.805253895891</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="K43" t="n">
-        <v>2764.533651243075</v>
+        <v>188.6896288950475</v>
       </c>
       <c r="L43" t="n">
-        <v>2968.19415089026</v>
+        <v>392.350128542232</v>
       </c>
       <c r="M43" t="n">
-        <v>3196.167586943608</v>
+        <v>620.3235645955795</v>
       </c>
       <c r="N43" t="n">
-        <v>3420.047977276968</v>
+        <v>844.2039549289402</v>
       </c>
       <c r="O43" t="n">
-        <v>3620.337243753468</v>
+        <v>1044.49322140544</v>
       </c>
       <c r="P43" t="n">
-        <v>3772.373441719426</v>
+        <v>1196.529419371398</v>
       </c>
       <c r="Q43" t="n">
-        <v>3798.061577393173</v>
+        <v>1222.217555045145</v>
       </c>
       <c r="R43" t="n">
-        <v>3686.359411909727</v>
+        <v>1110.515389561699</v>
       </c>
       <c r="S43" t="n">
-        <v>3488.271420568132</v>
+        <v>1110.515389561699</v>
       </c>
       <c r="T43" t="n">
-        <v>3488.271420568132</v>
+        <v>1110.515389561699</v>
       </c>
       <c r="U43" t="n">
-        <v>3488.271420568132</v>
+        <v>1110.515389561699</v>
       </c>
       <c r="V43" t="n">
-        <v>3488.271420568132</v>
+        <v>844.5360443825233</v>
       </c>
       <c r="W43" t="n">
-        <v>3488.271420568132</v>
+        <v>844.5360443825233</v>
       </c>
       <c r="X43" t="n">
-        <v>3488.271420568132</v>
+        <v>844.5360443825233</v>
       </c>
       <c r="Y43" t="n">
-        <v>3458.510981544841</v>
+        <v>844.5360443825233</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2055.172590076736</v>
+        <v>2086.613754494874</v>
       </c>
       <c r="C44" t="n">
-        <v>2011.327127122184</v>
+        <v>1693.438252997805</v>
       </c>
       <c r="D44" t="n">
-        <v>1625.885998338852</v>
+        <v>1307.997124214473</v>
       </c>
       <c r="E44" t="n">
-        <v>1223.302473455396</v>
+        <v>905.4135993310172</v>
       </c>
       <c r="F44" t="n">
-        <v>806.4080349853741</v>
+        <v>488.5191608609949</v>
       </c>
       <c r="G44" t="n">
-        <v>393.8501056722426</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="H44" t="n">
         <v>75.96123154786345</v>
@@ -7666,7 +7666,7 @@
         <v>3115.769891361771</v>
       </c>
       <c r="P44" t="n">
-        <v>3549.201349130635</v>
+        <v>3549.201349130636</v>
       </c>
       <c r="Q44" t="n">
         <v>3798.061577393173</v>
@@ -7678,22 +7678,22 @@
         <v>3645.330499340868</v>
       </c>
       <c r="T44" t="n">
-        <v>3424.477523585818</v>
+        <v>3596.705053613864</v>
       </c>
       <c r="U44" t="n">
-        <v>3168.773180116326</v>
+        <v>3596.705053613864</v>
       </c>
       <c r="V44" t="n">
-        <v>2826.666370819845</v>
+        <v>3254.598244317383</v>
       </c>
       <c r="W44" t="n">
-        <v>2455.667335788132</v>
+        <v>2883.59920928567</v>
       </c>
       <c r="X44" t="n">
-        <v>2455.667335788132</v>
+        <v>2883.59920928567</v>
       </c>
       <c r="Y44" t="n">
-        <v>2455.667335788132</v>
+        <v>2487.108500206271</v>
       </c>
     </row>
     <row r="45">
@@ -7727,25 +7727,25 @@
         <v>75.96123154786345</v>
       </c>
       <c r="J45" t="n">
-        <v>75.96123154786345</v>
+        <v>189.0762137675908</v>
       </c>
       <c r="K45" t="n">
-        <v>446.9164895271324</v>
+        <v>353.4403504068805</v>
       </c>
       <c r="L45" t="n">
-        <v>631.0211665505475</v>
+        <v>905.8728192384364</v>
       </c>
       <c r="M45" t="n">
-        <v>1339.156636842887</v>
+        <v>1614.008289530776</v>
       </c>
       <c r="N45" t="n">
-        <v>2077.425419922113</v>
+        <v>2352.277072610002</v>
       </c>
       <c r="O45" t="n">
-        <v>2077.425419922113</v>
+        <v>2352.277072610002</v>
       </c>
       <c r="P45" t="n">
-        <v>2077.425419922113</v>
+        <v>2352.277072610002</v>
       </c>
       <c r="Q45" t="n">
         <v>2352.277072610002</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>530.5670731016653</v>
+        <v>609.9762014519845</v>
       </c>
       <c r="C46" t="n">
-        <v>360.3619551676545</v>
+        <v>544.4790915731733</v>
       </c>
       <c r="D46" t="n">
-        <v>360.3619551676545</v>
+        <v>388.845978475688</v>
       </c>
       <c r="E46" t="n">
-        <v>204.803143026857</v>
+        <v>233.2871663348905</v>
       </c>
       <c r="F46" t="n">
         <v>75.96123154786345</v>
@@ -7830,28 +7830,28 @@
         <v>1222.217555045146</v>
       </c>
       <c r="R46" t="n">
-        <v>1222.217555045146</v>
+        <v>1110.515389561699</v>
       </c>
       <c r="S46" t="n">
-        <v>1222.217555045146</v>
+        <v>1110.515389561699</v>
       </c>
       <c r="T46" t="n">
-        <v>1222.217555045146</v>
+        <v>875.9555466311602</v>
       </c>
       <c r="U46" t="n">
-        <v>1222.217555045146</v>
+        <v>875.9555466311602</v>
       </c>
       <c r="V46" t="n">
-        <v>1222.217555045146</v>
+        <v>609.9762014519845</v>
       </c>
       <c r="W46" t="n">
-        <v>938.8871529763233</v>
+        <v>609.9762014519845</v>
       </c>
       <c r="X46" t="n">
-        <v>938.8871529763233</v>
+        <v>609.9762014519845</v>
       </c>
       <c r="Y46" t="n">
-        <v>715.7750917929666</v>
+        <v>609.9762014519845</v>
       </c>
     </row>
   </sheetData>
@@ -8060,13 +8060,13 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K3" t="n">
-        <v>412.5657697396227</v>
+        <v>124.646981443537</v>
       </c>
       <c r="L3" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>438.5811111539143</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N3" t="n">
         <v>747.7741039759435</v>
@@ -8294,28 +8294,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K6" t="n">
-        <v>412.5657697396227</v>
+        <v>124.646981443537</v>
       </c>
       <c r="L6" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N6" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O6" t="n">
-        <v>199.9106794075977</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P6" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q6" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8534,25 +8534,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>663.2434089132776</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N9" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
-        <v>496.801919078302</v>
+        <v>319.0197961262124</v>
       </c>
       <c r="Q9" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8768,7 +8768,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
         <v>412.5657697396227</v>
@@ -8777,16 +8777,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>747.7741039759435</v>
+        <v>220.8844470939643</v>
       </c>
       <c r="O12" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P12" t="n">
-        <v>196.5449382119064</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
         <v>327.7205688679246</v>
@@ -9017,16 +9017,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
-        <v>66.13937986283732</v>
+        <v>140.7931633382769</v>
       </c>
       <c r="O15" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P15" t="n">
-        <v>309.5148841358519</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>81.54871132755855</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9242,13 +9242,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>186.4296492611044</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
-        <v>77.65589871312437</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
-        <v>74.00414950560102</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
         <v>726.4998994499999</v>
@@ -9257,10 +9257,10 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O18" t="n">
-        <v>614.4252180716981</v>
+        <v>136.4851882880444</v>
       </c>
       <c r="P18" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q18" t="n">
         <v>90.98815315591399</v>
@@ -9482,7 +9482,7 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>77.65589871312437</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
         <v>578.5109386733963</v>
@@ -9491,16 +9491,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N21" t="n">
-        <v>623.9766782101185</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O21" t="n">
-        <v>614.4252180716981</v>
+        <v>136.4851882880453</v>
       </c>
       <c r="P21" t="n">
-        <v>72.96247359051659</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q21" t="n">
-        <v>81.54871132755855</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9716,25 +9716,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>37.86348895248237</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
-        <v>20.49834389404705</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N24" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
-        <v>331.4074517678267</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
         <v>327.7205688679246</v>
@@ -9953,28 +9953,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>52.17609846406341</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L27" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M27" t="n">
-        <v>726.4998994499999</v>
+        <v>185.2256097695333</v>
       </c>
       <c r="N27" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O27" t="n">
-        <v>16.46232962463533</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>323.1312796269561</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10190,10 +10190,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
-        <v>37.86348895248232</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
         <v>578.5109386733963</v>
@@ -10202,16 +10202,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
-        <v>2.048060461573968</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O30" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P30" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q30" t="n">
-        <v>50.09263685995592</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10433,22 +10433,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
-        <v>20.498343894047</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>327.3762202558466</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O33" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P33" t="n">
-        <v>25.90589819983202</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q33" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10664,7 +10664,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>52.17609846406339</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
         <v>412.5657697396227</v>
@@ -10673,16 +10673,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>11.21154561935391</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N36" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O36" t="n">
-        <v>235.9963229939739</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P36" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q36" t="n">
         <v>90.98815315591399</v>
@@ -10901,28 +10901,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>52.17609846406339</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
-        <v>191.6975072522843</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>11.21154561935391</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O39" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P39" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q39" t="n">
-        <v>50.09263685995592</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11138,28 +11138,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>52.17609846406339</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
-        <v>89.59693533333335</v>
+        <v>255.6213157770606</v>
       </c>
       <c r="L42" t="n">
-        <v>20.498343894047</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N42" t="n">
-        <v>735.7879999848858</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O42" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P42" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q42" t="n">
-        <v>50.09263685995592</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11375,13 +11375,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>52.17609846406337</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
-        <v>412.5657697396227</v>
+        <v>255.6213157770603</v>
       </c>
       <c r="L45" t="n">
-        <v>206.4626641197188</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
         <v>726.4998994499999</v>
@@ -11390,13 +11390,13 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O45" t="n">
-        <v>16.46232962463523</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P45" t="n">
-        <v>25.905898199832</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q45" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>85.16677573457554</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>17.98773276711168</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,22 +23311,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V11" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y11" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23418,7 +23418,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C13" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>154.0767819665104</v>
@@ -23430,13 +23430,13 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H13" t="n">
         <v>153.923765528121</v>
       </c>
       <c r="I13" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>30.07448747215907</v>
@@ -23481,10 +23481,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X13" t="n">
-        <v>231.7395189948467</v>
+        <v>185.4774701105754</v>
       </c>
       <c r="Y13" t="n">
-        <v>40.92385718483715</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="14">
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D14" t="n">
-        <v>147.4648556462052</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F14" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>408.8929189301868</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>319.4267867345849</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>131.6254422369924</v>
@@ -23545,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>28.93177871046231</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>220.6605864018419</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>253.1841455476122</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23661,22 +23661,22 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E16" t="n">
-        <v>101.6902318184409</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F16" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.5095175501914</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>153.3725664053245</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>129.8990979822881</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>25.69138360918559</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23703,25 +23703,25 @@
         <v>119.8744223558027</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>199.7075050668008</v>
       </c>
       <c r="T16" t="n">
-        <v>233.0969701194663</v>
+        <v>111.1206387595296</v>
       </c>
       <c r="U16" t="n">
-        <v>282.5810222508077</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="17">
@@ -23749,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>316.6180340793765</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>131.6254422369924</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>28.93121180451562</v>
       </c>
       <c r="S17" t="n">
         <v>161.6989813126609</v>
@@ -23797,10 +23797,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X17" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>91.61660910461148</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>168.5030667546707</v>
@@ -23901,19 +23901,19 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F19" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.5095175501914</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>153.3725664053245</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>129.8990979822881</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>25.69138360918561</v>
+        <v>25.69138360918559</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23940,19 +23940,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>199.7075050668008</v>
       </c>
       <c r="T19" t="n">
-        <v>167.3830144547495</v>
+        <v>233.0969701194663</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>282.5810222508077</v>
       </c>
       <c r="V19" t="n">
-        <v>263.319551727384</v>
+        <v>223.7097665782734</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X19" t="n">
         <v>231.7395189948467</v>
@@ -23968,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C20" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23980,16 +23980,16 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>319.4267867345849</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>131.6254422369924</v>
+        <v>56.16987692551321</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,7 +24022,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>220.6605864018419</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24034,10 +24034,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y20" t="n">
-        <v>198.3826730475189</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="21">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C22" t="n">
         <v>168.5030667546707</v>
@@ -24141,7 +24141,7 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.5095175501914</v>
       </c>
       <c r="H22" t="n">
         <v>153.3725664053245</v>
@@ -24150,7 +24150,7 @@
         <v>129.8990979822881</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>25.69138360918561</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>119.8744223558027</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>199.7075050668008</v>
@@ -24186,16 +24186,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>204.8229292505422</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y22" t="n">
-        <v>220.8809405715231</v>
+        <v>218.7790315673893</v>
       </c>
     </row>
     <row r="23">
@@ -24205,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24220,10 +24220,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>194.640336140409</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>314.7099853831353</v>
       </c>
       <c r="I23" t="n">
         <v>113.8693593270195</v>
@@ -24259,16 +24259,16 @@
         <v>151.2037672717813</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>218.6444459974996</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>72.07337582816015</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C25" t="n">
         <v>168.5030667546707</v>
@@ -24372,7 +24372,7 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E25" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24381,13 +24381,13 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>151.5357458635549</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>11.08509183685203</v>
+        <v>11.08509183685201</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>110.585143828612</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>196.1071114281788</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>232.2142445012334</v>
@@ -24423,16 +24423,16 @@
         <v>282.5697534131281</v>
       </c>
       <c r="V25" t="n">
-        <v>259.0015783626297</v>
+        <v>186.4988263783191</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X25" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="26">
@@ -24457,7 +24457,7 @@
         <v>412.725494085322</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>408.4323500200001</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24496,13 +24496,13 @@
         <v>151.2037672717813</v>
       </c>
       <c r="T26" t="n">
-        <v>218.6444459974996</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>253.1473000347972</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>88.19961177257269</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24511,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>151.5590077848687</v>
       </c>
     </row>
     <row r="27">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C28" t="n">
         <v>168.5030667546707</v>
@@ -24615,16 +24615,16 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.3029221927327</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>151.5357458635549</v>
       </c>
       <c r="I28" t="n">
         <v>123.6862121416195</v>
       </c>
       <c r="J28" t="n">
-        <v>11.08509183685203</v>
+        <v>11.08509183685201</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24654,19 +24654,19 @@
         <v>196.1071114281788</v>
       </c>
       <c r="T28" t="n">
-        <v>232.2142445012334</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>282.5697534131281</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>141.9570150687322</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>155.5464064224173</v>
       </c>
       <c r="Y28" t="n">
         <v>220.8809405715231</v>
@@ -24682,10 +24682,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>65.73016805728582</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>217.3775925405234</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24700,7 +24700,7 @@
         <v>314.7099853831353</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>113.8693593270195</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24733,19 +24733,19 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>218.6444459974996</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>253.1473000347972</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24849,19 +24849,19 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F31" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>5.719823000347844</v>
+        <v>166.3029221927327</v>
       </c>
       <c r="H31" t="n">
-        <v>151.5357458635549</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>123.6862121416195</v>
       </c>
       <c r="J31" t="n">
-        <v>11.08509183685201</v>
+        <v>11.08509183685203</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24891,19 +24891,19 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>232.2142445012334</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>163.4081429246905</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>220.8809405715231</v>
@@ -24934,7 +24934,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>314.7099853831353</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,22 +24967,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>151.2037672717813</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>218.6444459974996</v>
       </c>
       <c r="U32" t="n">
-        <v>115.0946415220408</v>
+        <v>253.1473000347972</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>83.99920239216445</v>
       </c>
       <c r="W32" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X32" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E34" t="n">
         <v>154.0032240193895</v>
@@ -25089,10 +25089,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.3029221927327</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>151.5357458635549</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>110.585143828612</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>196.1071114281788</v>
@@ -25134,16 +25134,16 @@
         <v>282.5697534131281</v>
       </c>
       <c r="V34" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>231.7395189948467</v>
+        <v>30.78643991744386</v>
       </c>
       <c r="Y34" t="n">
-        <v>189.3005231718474</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="35">
@@ -25159,19 +25159,19 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>65.90143994916286</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>314.7099853831353</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25210,16 +25210,16 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>253.1473000347972</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
-        <v>39.12669960159224</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C37" t="n">
-        <v>88.70436284350265</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D37" t="n">
         <v>154.0767819665104</v>
@@ -25323,7 +25323,7 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G37" t="n">
         <v>166.3029221927327</v>
@@ -25332,7 +25332,7 @@
         <v>151.5357458635549</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>123.6862121416195</v>
       </c>
       <c r="J37" t="n">
         <v>11.08509183685201</v>
@@ -25365,10 +25365,10 @@
         <v>196.1071114281788</v>
       </c>
       <c r="T37" t="n">
-        <v>232.2142445012334</v>
+        <v>155.5464064224173</v>
       </c>
       <c r="U37" t="n">
-        <v>282.5697534131281</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25399,19 +25399,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>52.73055743893855</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>66.1738252687411</v>
       </c>
       <c r="H38" t="n">
         <v>314.7099853831353</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>113.8693593270195</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,16 +25441,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>151.2037672717813</v>
       </c>
       <c r="T38" t="n">
-        <v>218.6444459974996</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>253.1473000347972</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25548,31 +25548,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F40" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.3029221927327</v>
       </c>
       <c r="H40" t="n">
-        <v>85.80852987063649</v>
+        <v>151.5357458635549</v>
       </c>
       <c r="I40" t="n">
         <v>123.6862121416195</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>11.08509183685201</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25605,19 +25605,19 @@
         <v>232.2142445012334</v>
       </c>
       <c r="U40" t="n">
-        <v>282.5697534131281</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>220.8809405715231</v>
+        <v>144.2131024927069</v>
       </c>
     </row>
     <row r="41">
@@ -25633,19 +25633,19 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>314.7099853831353</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>112.602505870043</v>
       </c>
       <c r="T41" t="n">
         <v>218.6444459974996</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>253.1473000347972</v>
       </c>
       <c r="V41" t="n">
-        <v>224.8333209106704</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>183.3559385043883</v>
+        <v>54.8026219778024</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25800,7 +25800,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.3029221927327</v>
       </c>
       <c r="H43" t="n">
         <v>151.5357458635549</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>196.1071114281788</v>
       </c>
       <c r="T43" t="n">
         <v>232.2142445012334</v>
@@ -25845,7 +25845,7 @@
         <v>282.5697534131281</v>
       </c>
       <c r="V43" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>280.4970980481341</v>
@@ -25854,7 +25854,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y43" t="n">
-        <v>191.4181059384655</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="44">
@@ -25867,7 +25867,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>345.8367381570929</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25882,7 +25882,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>314.7099853831353</v>
       </c>
       <c r="I44" t="n">
         <v>113.8693593270194</v>
@@ -25918,10 +25918,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>170.5052547277654</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>253.1473000347972</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -25933,7 +25933,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y44" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26022,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>103.6609279746476</v>
       </c>
       <c r="D46" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>28.19918307495317</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.3029221927327</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>110.585143828612</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>196.1071114281788</v>
       </c>
       <c r="T46" t="n">
-        <v>232.2142445012334</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>282.5697534131281</v>
       </c>
       <c r="V46" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>559779.7695900871</v>
+        <v>559779.7695900874</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>576810.3439949295</v>
+        <v>576810.3439949297</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>576810.3439949297</v>
+        <v>576810.3439949296</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>633563.1718046756</v>
+        <v>633563.1718046758</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>633563.1718046757</v>
+        <v>633563.1718046756</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>633563.1718046758</v>
+        <v>633563.1718046757</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>633563.1718046757</v>
+        <v>633563.1718046758</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>633563.1718046757</v>
+        <v>633563.1718046758</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>633563.1718046758</v>
+        <v>633563.1718046757</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>468863.6630427279</v>
+        <v>468863.6630427276</v>
       </c>
       <c r="C2" t="n">
         <v>468863.6630427276</v>
       </c>
       <c r="D2" t="n">
-        <v>468863.6630427276</v>
+        <v>468863.6630427277</v>
       </c>
       <c r="E2" t="n">
-        <v>330778.9547577788</v>
+        <v>330778.9547577789</v>
       </c>
       <c r="F2" t="n">
+        <v>340842.475997004</v>
+      </c>
+      <c r="G2" t="n">
         <v>340842.4759970038</v>
-      </c>
-      <c r="G2" t="n">
-        <v>340842.475997004</v>
       </c>
       <c r="H2" t="n">
         <v>340842.4759970039</v>
       </c>
       <c r="I2" t="n">
+        <v>374378.2378845813</v>
+      </c>
+      <c r="J2" t="n">
+        <v>374378.2378845813</v>
+      </c>
+      <c r="K2" t="n">
         <v>374378.2378845811</v>
       </c>
-      <c r="J2" t="n">
-        <v>374378.2378845814</v>
-      </c>
-      <c r="K2" t="n">
-        <v>374378.2378845813</v>
-      </c>
       <c r="L2" t="n">
-        <v>374378.2378845813</v>
+        <v>374378.2378845812</v>
       </c>
       <c r="M2" t="n">
-        <v>374378.2378845812</v>
+        <v>374378.2378845811</v>
       </c>
       <c r="N2" t="n">
-        <v>374378.2378845814</v>
+        <v>374378.2378845811</v>
       </c>
       <c r="O2" t="n">
-        <v>374378.2378845813</v>
+        <v>374378.2378845811</v>
       </c>
       <c r="P2" t="n">
-        <v>374378.2378845813</v>
+        <v>374378.2378845811</v>
       </c>
     </row>
     <row r="3">
@@ -26377,7 +26377,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>38618.28135371931</v>
+        <v>38618.28135371948</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>121630.8914533328</v>
+        <v>121630.8914533329</v>
       </c>
       <c r="J3" t="n">
         <v>203163.713112695</v>
@@ -26401,7 +26401,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>9781.813944932048</v>
+        <v>9781.813944932099</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26426,10 +26426,10 @@
         <v>121801.4438820496</v>
       </c>
       <c r="E4" t="n">
-        <v>548.8206074562066</v>
+        <v>548.8206074562065</v>
       </c>
       <c r="F4" t="n">
-        <v>569.1338702126725</v>
+        <v>569.1338702126726</v>
       </c>
       <c r="G4" t="n">
         <v>569.1338702126726</v>
@@ -26441,22 +26441,22 @@
         <v>636.825955991297</v>
       </c>
       <c r="J4" t="n">
-        <v>636.8259559912968</v>
+        <v>636.825955991297</v>
       </c>
       <c r="K4" t="n">
         <v>636.825955991297</v>
       </c>
       <c r="L4" t="n">
-        <v>636.8259559912971</v>
+        <v>636.825955991297</v>
       </c>
       <c r="M4" t="n">
-        <v>636.8259559912971</v>
+        <v>636.825955991297</v>
       </c>
       <c r="N4" t="n">
-        <v>636.8259559912971</v>
+        <v>636.825955991297</v>
       </c>
       <c r="O4" t="n">
-        <v>636.8259559912971</v>
+        <v>636.825955991297</v>
       </c>
       <c r="P4" t="n">
         <v>636.825955991297</v>
@@ -26478,16 +26478,16 @@
         <v>80838.13705512779</v>
       </c>
       <c r="E5" t="n">
-        <v>47210.53705512779</v>
+        <v>47210.5370551278</v>
       </c>
       <c r="F5" t="n">
-        <v>50388.22045139005</v>
+        <v>50388.22045139007</v>
       </c>
       <c r="G5" t="n">
-        <v>50388.22045139005</v>
+        <v>50388.22045139007</v>
       </c>
       <c r="H5" t="n">
-        <v>50388.22045139005</v>
+        <v>50388.22045139006</v>
       </c>
       <c r="I5" t="n">
         <v>60977.55903357454</v>
@@ -26499,16 +26499,16 @@
         <v>60977.55903357454</v>
       </c>
       <c r="L5" t="n">
-        <v>60977.55903357455</v>
+        <v>60977.55903357454</v>
       </c>
       <c r="M5" t="n">
         <v>60977.55903357454</v>
       </c>
       <c r="N5" t="n">
+        <v>60977.55903357455</v>
+      </c>
+      <c r="O5" t="n">
         <v>60977.55903357454</v>
-      </c>
-      <c r="O5" t="n">
-        <v>60977.55903357455</v>
       </c>
       <c r="P5" t="n">
         <v>60977.55903357454</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6004.726685721602</v>
+        <v>6004.726685721369</v>
       </c>
       <c r="C6" t="n">
         <v>266224.0821055502</v>
       </c>
       <c r="D6" t="n">
-        <v>266224.0821055502</v>
+        <v>266224.0821055503</v>
       </c>
       <c r="E6" t="n">
-        <v>283019.5970951948</v>
+        <v>282488.5020633297</v>
       </c>
       <c r="F6" t="n">
-        <v>251266.8403216818</v>
+        <v>250774.4511407367</v>
       </c>
       <c r="G6" t="n">
-        <v>289885.1216754013</v>
+        <v>289392.7324944559</v>
       </c>
       <c r="H6" t="n">
-        <v>289885.1216754012</v>
+        <v>289392.7324944561</v>
       </c>
       <c r="I6" t="n">
-        <v>191132.9614416825</v>
+        <v>190769.5559603052</v>
       </c>
       <c r="J6" t="n">
-        <v>109600.1397823205</v>
+        <v>109236.734300943</v>
       </c>
       <c r="K6" t="n">
-        <v>312763.8528950154</v>
+        <v>312400.4474136378</v>
       </c>
       <c r="L6" t="n">
-        <v>312763.8528950154</v>
+        <v>312400.4474136379</v>
       </c>
       <c r="M6" t="n">
-        <v>312763.8528950154</v>
+        <v>312400.4474136378</v>
       </c>
       <c r="N6" t="n">
-        <v>302982.0389500835</v>
+        <v>302618.6334687057</v>
       </c>
       <c r="O6" t="n">
-        <v>312763.8528950155</v>
+        <v>312400.4474136378</v>
       </c>
       <c r="P6" t="n">
-        <v>312763.8528950155</v>
+        <v>312400.4474136378</v>
       </c>
     </row>
   </sheetData>
@@ -26749,22 +26749,22 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>34.37949538914501</v>
+        <v>34.37949538914519</v>
       </c>
       <c r="G3" t="n">
-        <v>34.37949538914501</v>
+        <v>34.37949538914519</v>
       </c>
       <c r="H3" t="n">
-        <v>34.37949538914499</v>
+        <v>34.37949538914508</v>
       </c>
       <c r="I3" t="n">
+        <v>148.9460117980881</v>
+      </c>
+      <c r="J3" t="n">
+        <v>148.9460117980881</v>
+      </c>
+      <c r="K3" t="n">
         <v>148.9460117980879</v>
-      </c>
-      <c r="J3" t="n">
-        <v>148.9460117980879</v>
-      </c>
-      <c r="K3" t="n">
-        <v>148.9460117980881</v>
       </c>
       <c r="L3" t="n">
         <v>148.9460117980881</v>
@@ -26798,19 +26798,19 @@
         <v>776.4890963014441</v>
       </c>
       <c r="E4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="F4" t="n">
-        <v>816.4267673010969</v>
+        <v>816.4267673010971</v>
       </c>
       <c r="G4" t="n">
-        <v>816.4267673010969</v>
+        <v>816.4267673010971</v>
       </c>
       <c r="H4" t="n">
-        <v>816.4267673010969</v>
+        <v>816.426767301097</v>
       </c>
       <c r="I4" t="n">
-        <v>949.5153943482931</v>
+        <v>949.5153943482932</v>
       </c>
       <c r="J4" t="n">
         <v>949.5153943482931</v>
@@ -26819,16 +26819,16 @@
         <v>949.5153943482931</v>
       </c>
       <c r="L4" t="n">
+        <v>949.5153943482931</v>
+      </c>
+      <c r="M4" t="n">
+        <v>949.5153943482932</v>
+      </c>
+      <c r="N4" t="n">
         <v>949.5153943482933</v>
       </c>
-      <c r="M4" t="n">
+      <c r="O4" t="n">
         <v>949.5153943482931</v>
-      </c>
-      <c r="N4" t="n">
-        <v>949.5153943482932</v>
-      </c>
-      <c r="O4" t="n">
-        <v>949.5153943482933</v>
       </c>
       <c r="P4" t="n">
         <v>949.5153943482932</v>
@@ -26971,7 +26971,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>34.37949538914501</v>
+        <v>34.37949538914519</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>114.5665164089429</v>
+        <v>114.566516408943</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27023,7 +27023,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>39.93767099965304</v>
+        <v>39.93767099965314</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>133.0886270471962</v>
       </c>
       <c r="J4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27047,7 +27047,7 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>39.93767099965316</v>
+        <v>39.93767099965336</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27269,7 +27269,7 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>39.93767099965304</v>
+        <v>39.93767099965314</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27381,10 +27381,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>43.1277568340156</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,13 +27435,13 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>243.6173397055417</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>159.5575303759871</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
         <v>389.2437464820987</v>
@@ -27627,13 +27627,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27663,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>108.3528786406649</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -27773,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>100.9668393102438</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.5715133615489</v>
@@ -27797,7 +27797,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
         <v>263.319551727384</v>
@@ -27842,7 +27842,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.8809405715231</v>
+        <v>174.2145624116609</v>
       </c>
     </row>
     <row r="8">
@@ -27852,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>49.88561424543326</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27900,28 +27900,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>61.90605388844381</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -28010,31 +28010,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28070,16 +28070,16 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>162.9761463409154</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>192.5440105574261</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1382090266900301</v>
+        <v>0.1382090266900308</v>
       </c>
       <c r="H14" t="n">
-        <v>1.415433194589271</v>
+        <v>1.415433194589278</v>
       </c>
       <c r="I14" t="n">
-        <v>5.32830350146739</v>
+        <v>5.328303501467418</v>
       </c>
       <c r="J14" t="n">
-        <v>11.73031837903295</v>
+        <v>11.73031837903301</v>
       </c>
       <c r="K14" t="n">
-        <v>17.58070647882193</v>
+        <v>17.58070647882202</v>
       </c>
       <c r="L14" t="n">
-        <v>21.81042097938694</v>
+        <v>21.81042097938706</v>
       </c>
       <c r="M14" t="n">
-        <v>24.26829575778576</v>
+        <v>24.26829575778589</v>
       </c>
       <c r="N14" t="n">
-        <v>24.66098215486882</v>
+        <v>24.66098215486894</v>
       </c>
       <c r="O14" t="n">
-        <v>23.28666614571983</v>
+        <v>23.28666614571995</v>
       </c>
       <c r="P14" t="n">
-        <v>19.87463079930971</v>
+        <v>19.87463079930981</v>
       </c>
       <c r="Q14" t="n">
-        <v>14.925020030973</v>
+        <v>14.92502003097307</v>
       </c>
       <c r="R14" t="n">
-        <v>8.681772772817611</v>
+        <v>8.681772772817656</v>
       </c>
       <c r="S14" t="n">
-        <v>3.149438195699064</v>
+        <v>3.14943819569908</v>
       </c>
       <c r="T14" t="n">
-        <v>0.6050100143356071</v>
+        <v>0.6050100143356102</v>
       </c>
       <c r="U14" t="n">
-        <v>0.01105672213520241</v>
+        <v>0.01105672213520246</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.07394834857287795</v>
+        <v>0.07394834857287834</v>
       </c>
       <c r="H15" t="n">
-        <v>0.7141853664801635</v>
+        <v>0.7141853664801672</v>
       </c>
       <c r="I15" t="n">
-        <v>2.546028667969702</v>
+        <v>2.546028667969715</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>11.94103662020898</v>
+        <v>11.94103662020904</v>
       </c>
       <c r="L15" t="n">
-        <v>16.05619735131721</v>
+        <v>16.05619735131729</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>18.73682498708413</v>
       </c>
       <c r="N15" t="n">
-        <v>19.23273299132934</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>14.12089122879815</v>
       </c>
       <c r="Q15" t="n">
-        <v>9.43944182835544</v>
+        <v>9.439441828355488</v>
       </c>
       <c r="R15" t="n">
-        <v>4.591284308761669</v>
+        <v>4.591284308761693</v>
       </c>
       <c r="S15" t="n">
-        <v>1.373558141254991</v>
+        <v>1.373558141254998</v>
       </c>
       <c r="T15" t="n">
-        <v>0.2980637383266439</v>
+        <v>0.2980637383266455</v>
       </c>
       <c r="U15" t="n">
-        <v>0.004865022932426183</v>
+        <v>0.004865022932426208</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.06199581135747461</v>
+        <v>0.06199581135747493</v>
       </c>
       <c r="H16" t="n">
-        <v>0.5511991227964564</v>
+        <v>0.5511991227964593</v>
       </c>
       <c r="I16" t="n">
-        <v>1.864383127004782</v>
+        <v>1.864383127004792</v>
       </c>
       <c r="J16" t="n">
-        <v>4.383103862973455</v>
+        <v>4.383103862973477</v>
       </c>
       <c r="K16" t="n">
-        <v>7.202786083168412</v>
+        <v>7.20278608316845</v>
       </c>
       <c r="L16" t="n">
-        <v>9.217086354001271</v>
+        <v>9.217086354001319</v>
       </c>
       <c r="M16" t="n">
-        <v>9.718125229426677</v>
+        <v>9.718125229426727</v>
       </c>
       <c r="N16" t="n">
-        <v>9.487049932548825</v>
+        <v>9.487049932548874</v>
       </c>
       <c r="O16" t="n">
-        <v>8.762826136236505</v>
+        <v>8.76282613623655</v>
       </c>
       <c r="P16" t="n">
-        <v>7.498111584544016</v>
+        <v>7.498111584544056</v>
       </c>
       <c r="Q16" t="n">
-        <v>5.191303803760897</v>
+        <v>5.191303803760924</v>
       </c>
       <c r="R16" t="n">
-        <v>2.787557117946085</v>
+        <v>2.787557117946099</v>
       </c>
       <c r="S16" t="n">
-        <v>1.080417912475262</v>
+        <v>1.080417912475267</v>
       </c>
       <c r="T16" t="n">
-        <v>0.2648911939819369</v>
+        <v>0.2648911939819383</v>
       </c>
       <c r="U16" t="n">
-        <v>0.00338158971040771</v>
+        <v>0.003381589710407727</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1382090266900301</v>
+        <v>0.1382090266900308</v>
       </c>
       <c r="H17" t="n">
-        <v>1.415433194589271</v>
+        <v>1.415433194589278</v>
       </c>
       <c r="I17" t="n">
-        <v>5.32830350146739</v>
+        <v>5.328303501467418</v>
       </c>
       <c r="J17" t="n">
-        <v>11.73031837903295</v>
+        <v>11.73031837903301</v>
       </c>
       <c r="K17" t="n">
-        <v>17.58070647882193</v>
+        <v>17.58070647882202</v>
       </c>
       <c r="L17" t="n">
-        <v>21.81042097938694</v>
+        <v>21.81042097938706</v>
       </c>
       <c r="M17" t="n">
-        <v>24.26829575778576</v>
+        <v>24.26829575778589</v>
       </c>
       <c r="N17" t="n">
-        <v>24.66098215486882</v>
+        <v>24.66098215486894</v>
       </c>
       <c r="O17" t="n">
-        <v>23.28666614571983</v>
+        <v>23.28666614571995</v>
       </c>
       <c r="P17" t="n">
-        <v>19.87463079930971</v>
+        <v>19.87463079930981</v>
       </c>
       <c r="Q17" t="n">
-        <v>14.925020030973</v>
+        <v>14.92502003097307</v>
       </c>
       <c r="R17" t="n">
-        <v>8.681772772817611</v>
+        <v>8.681772772817656</v>
       </c>
       <c r="S17" t="n">
-        <v>3.149438195699064</v>
+        <v>3.14943819569908</v>
       </c>
       <c r="T17" t="n">
-        <v>0.6050100143356071</v>
+        <v>0.6050100143356102</v>
       </c>
       <c r="U17" t="n">
-        <v>0.01105672213520241</v>
+        <v>0.01105672213520246</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,28 +32305,28 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.07394834857287795</v>
+        <v>0.07394834857287834</v>
       </c>
       <c r="H18" t="n">
-        <v>0.7141853664801635</v>
+        <v>0.7141853664801672</v>
       </c>
       <c r="I18" t="n">
-        <v>2.546028667969702</v>
+        <v>2.546028667969715</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>11.94103662020898</v>
+        <v>11.94103662020904</v>
       </c>
       <c r="L18" t="n">
-        <v>16.05619735131721</v>
+        <v>16.05619735131729</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>18.73682498708413</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>19.23273299132944</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -32338,16 +32338,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>4.591284308761669</v>
+        <v>4.591284308761693</v>
       </c>
       <c r="S18" t="n">
-        <v>1.373558141254991</v>
+        <v>1.373558141254998</v>
       </c>
       <c r="T18" t="n">
-        <v>0.2980637383266439</v>
+        <v>0.2980637383266455</v>
       </c>
       <c r="U18" t="n">
-        <v>0.004865022932426183</v>
+        <v>0.004865022932426208</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.06199581135747461</v>
+        <v>0.06199581135747493</v>
       </c>
       <c r="H19" t="n">
-        <v>0.5511991227964564</v>
+        <v>0.5511991227964593</v>
       </c>
       <c r="I19" t="n">
-        <v>1.864383127004782</v>
+        <v>1.864383127004792</v>
       </c>
       <c r="J19" t="n">
-        <v>4.383103862973455</v>
+        <v>4.383103862973477</v>
       </c>
       <c r="K19" t="n">
-        <v>7.202786083168412</v>
+        <v>7.20278608316845</v>
       </c>
       <c r="L19" t="n">
-        <v>9.217086354001271</v>
+        <v>9.217086354001319</v>
       </c>
       <c r="M19" t="n">
-        <v>9.718125229426677</v>
+        <v>9.718125229426727</v>
       </c>
       <c r="N19" t="n">
-        <v>9.487049932548825</v>
+        <v>9.487049932548874</v>
       </c>
       <c r="O19" t="n">
-        <v>8.762826136236505</v>
+        <v>8.76282613623655</v>
       </c>
       <c r="P19" t="n">
-        <v>7.498111584544016</v>
+        <v>7.498111584544056</v>
       </c>
       <c r="Q19" t="n">
-        <v>5.191303803760897</v>
+        <v>5.191303803760924</v>
       </c>
       <c r="R19" t="n">
-        <v>2.787557117946085</v>
+        <v>2.787557117946099</v>
       </c>
       <c r="S19" t="n">
-        <v>1.080417912475262</v>
+        <v>1.080417912475267</v>
       </c>
       <c r="T19" t="n">
-        <v>0.2648911939819369</v>
+        <v>0.2648911939819383</v>
       </c>
       <c r="U19" t="n">
-        <v>0.00338158971040771</v>
+        <v>0.003381589710407727</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.13820902669003</v>
+        <v>0.1382090266900304</v>
       </c>
       <c r="H20" t="n">
-        <v>1.41543319458927</v>
+        <v>1.415433194589274</v>
       </c>
       <c r="I20" t="n">
-        <v>5.328303501467388</v>
+        <v>5.328303501467401</v>
       </c>
       <c r="J20" t="n">
-        <v>11.73031837903295</v>
+        <v>11.73031837903297</v>
       </c>
       <c r="K20" t="n">
-        <v>17.58070647882192</v>
+        <v>17.58070647882196</v>
       </c>
       <c r="L20" t="n">
-        <v>21.81042097938693</v>
+        <v>21.81042097938698</v>
       </c>
       <c r="M20" t="n">
-        <v>24.26829575778575</v>
+        <v>24.26829575778581</v>
       </c>
       <c r="N20" t="n">
-        <v>24.6609821548688</v>
+        <v>24.66098215486886</v>
       </c>
       <c r="O20" t="n">
-        <v>23.28666614571981</v>
+        <v>23.28666614571987</v>
       </c>
       <c r="P20" t="n">
-        <v>19.87463079930969</v>
+        <v>19.87463079930974</v>
       </c>
       <c r="Q20" t="n">
-        <v>14.92502003097299</v>
+        <v>14.92502003097303</v>
       </c>
       <c r="R20" t="n">
-        <v>8.681772772817606</v>
+        <v>8.681772772817627</v>
       </c>
       <c r="S20" t="n">
-        <v>3.149438195699062</v>
+        <v>3.14943819569907</v>
       </c>
       <c r="T20" t="n">
-        <v>0.6050100143356067</v>
+        <v>0.6050100143356082</v>
       </c>
       <c r="U20" t="n">
-        <v>0.0110567221352024</v>
+        <v>0.01105672213520243</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.07394834857287791</v>
+        <v>0.07394834857287809</v>
       </c>
       <c r="H21" t="n">
-        <v>0.7141853664801631</v>
+        <v>0.7141853664801648</v>
       </c>
       <c r="I21" t="n">
-        <v>2.5460286679697</v>
+        <v>2.546028667969706</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>11.94103662020897</v>
+        <v>11.941036620209</v>
       </c>
       <c r="L21" t="n">
-        <v>16.0561973513172</v>
+        <v>16.05619735131724</v>
       </c>
       <c r="M21" t="n">
-        <v>18.73682498708402</v>
+        <v>18.73682498708407</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>19.23273299132938</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>14.12089122879807</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>9.439441828355434</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>4.591284308761667</v>
+        <v>4.591284308761678</v>
       </c>
       <c r="S21" t="n">
-        <v>1.37355814125499</v>
+        <v>1.373558141254994</v>
       </c>
       <c r="T21" t="n">
-        <v>0.2980637383266437</v>
+        <v>0.2980637383266445</v>
       </c>
       <c r="U21" t="n">
-        <v>0.004865022932426181</v>
+        <v>0.004865022932426192</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.06199581135747457</v>
+        <v>0.06199581135747472</v>
       </c>
       <c r="H22" t="n">
-        <v>0.5511991227964561</v>
+        <v>0.5511991227964574</v>
       </c>
       <c r="I22" t="n">
-        <v>1.864383127004781</v>
+        <v>1.864383127004786</v>
       </c>
       <c r="J22" t="n">
-        <v>4.383103862973452</v>
+        <v>4.383103862973463</v>
       </c>
       <c r="K22" t="n">
-        <v>7.202786083168408</v>
+        <v>7.202786083168426</v>
       </c>
       <c r="L22" t="n">
-        <v>9.217086354001266</v>
+        <v>9.217086354001289</v>
       </c>
       <c r="M22" t="n">
-        <v>9.718125229426672</v>
+        <v>9.718125229426695</v>
       </c>
       <c r="N22" t="n">
-        <v>9.487049932548819</v>
+        <v>9.487049932548842</v>
       </c>
       <c r="O22" t="n">
-        <v>8.7628261362365</v>
+        <v>8.762826136236521</v>
       </c>
       <c r="P22" t="n">
-        <v>7.498111584544012</v>
+        <v>7.498111584544031</v>
       </c>
       <c r="Q22" t="n">
-        <v>5.191303803760894</v>
+        <v>5.191303803760906</v>
       </c>
       <c r="R22" t="n">
-        <v>2.787557117946083</v>
+        <v>2.78755711794609</v>
       </c>
       <c r="S22" t="n">
-        <v>1.080417912475261</v>
+        <v>1.080417912475264</v>
       </c>
       <c r="T22" t="n">
-        <v>0.2648911939819367</v>
+        <v>0.2648911939819374</v>
       </c>
       <c r="U22" t="n">
-        <v>0.003381589710407708</v>
+        <v>0.003381589710407716</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.598777936876735</v>
+        <v>0.5987779368767354</v>
       </c>
       <c r="H23" t="n">
-        <v>6.132234546038863</v>
+        <v>6.132234546038868</v>
       </c>
       <c r="I23" t="n">
-        <v>23.08438641144035</v>
+        <v>23.08438641144037</v>
       </c>
       <c r="J23" t="n">
-        <v>50.82052891999183</v>
+        <v>50.82052891999187</v>
       </c>
       <c r="K23" t="n">
-        <v>76.16679898798404</v>
+        <v>76.16679898798409</v>
       </c>
       <c r="L23" t="n">
-        <v>94.49164927367543</v>
+        <v>94.49164927367551</v>
       </c>
       <c r="M23" t="n">
         <v>105.1401664086071</v>
       </c>
       <c r="N23" t="n">
-        <v>106.8414442217581</v>
+        <v>106.8414442217582</v>
       </c>
       <c r="O23" t="n">
         <v>100.8873461119401</v>
       </c>
       <c r="P23" t="n">
-        <v>86.10501579529566</v>
+        <v>86.10501579529571</v>
       </c>
       <c r="Q23" t="n">
-        <v>64.66128093089756</v>
+        <v>64.6612809308976</v>
       </c>
       <c r="R23" t="n">
-        <v>37.61298457733324</v>
+        <v>37.61298457733326</v>
       </c>
       <c r="S23" t="n">
-        <v>13.64465223657861</v>
+        <v>13.64465223657862</v>
       </c>
       <c r="T23" t="n">
-        <v>2.621150418677909</v>
+        <v>2.621150418677911</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04790223495013879</v>
+        <v>0.04790223495013882</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,22 +32779,22 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.320374440471359</v>
+        <v>0.3203744404713592</v>
       </c>
       <c r="H24" t="n">
-        <v>3.094142622447073</v>
+        <v>3.094142622447075</v>
       </c>
       <c r="I24" t="n">
-        <v>11.0304357793867</v>
+        <v>11.03043577938671</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>51.73344638085098</v>
+        <v>27.14510501182366</v>
       </c>
       <c r="L24" t="n">
-        <v>69.56200296287118</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -32803,25 +32803,25 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>76.22522926425361</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>61.17746661948262</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>40.89551629595807</v>
       </c>
       <c r="R24" t="n">
-        <v>19.89131833031824</v>
+        <v>19.89131833031826</v>
       </c>
       <c r="S24" t="n">
-        <v>5.950814716650019</v>
+        <v>5.950814716650023</v>
       </c>
       <c r="T24" t="n">
-        <v>1.291333819268328</v>
+        <v>1.291333819268329</v>
       </c>
       <c r="U24" t="n">
-        <v>0.02107726582048415</v>
+        <v>0.02107726582048417</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2685911688162241</v>
+        <v>0.2685911688162243</v>
       </c>
       <c r="H25" t="n">
-        <v>2.388019664566067</v>
+        <v>2.388019664566069</v>
       </c>
       <c r="I25" t="n">
-        <v>8.07726896767336</v>
+        <v>8.077268967673367</v>
       </c>
       <c r="J25" t="n">
-        <v>18.98939563530704</v>
+        <v>18.98939563530706</v>
       </c>
       <c r="K25" t="n">
-        <v>31.20541034064858</v>
+        <v>31.2054103406486</v>
       </c>
       <c r="L25" t="n">
-        <v>39.93218158927755</v>
+        <v>39.93218158927758</v>
       </c>
       <c r="M25" t="n">
-        <v>42.10288658089229</v>
+        <v>42.10288658089232</v>
       </c>
       <c r="N25" t="n">
-        <v>41.1017740425773</v>
+        <v>41.10177404257734</v>
       </c>
       <c r="O25" t="n">
-        <v>37.96414084322413</v>
+        <v>37.96414084322416</v>
       </c>
       <c r="P25" t="n">
-        <v>32.48488099937313</v>
+        <v>32.48488099937315</v>
       </c>
       <c r="Q25" t="n">
-        <v>22.49084778151128</v>
+        <v>22.4908477815113</v>
       </c>
       <c r="R25" t="n">
-        <v>12.07683564513676</v>
+        <v>12.07683564513678</v>
       </c>
       <c r="S25" t="n">
-        <v>4.680811551097286</v>
+        <v>4.68081155109729</v>
       </c>
       <c r="T25" t="n">
-        <v>1.147616812214775</v>
+        <v>1.147616812214776</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01465042738997588</v>
+        <v>0.01465042738997589</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.598777936876735</v>
+        <v>0.5987779368767354</v>
       </c>
       <c r="H26" t="n">
-        <v>6.132234546038863</v>
+        <v>6.132234546038868</v>
       </c>
       <c r="I26" t="n">
-        <v>23.08438641144035</v>
+        <v>23.08438641144037</v>
       </c>
       <c r="J26" t="n">
-        <v>50.82052891999183</v>
+        <v>50.82052891999187</v>
       </c>
       <c r="K26" t="n">
-        <v>76.16679898798404</v>
+        <v>76.16679898798409</v>
       </c>
       <c r="L26" t="n">
-        <v>94.49164927367543</v>
+        <v>94.49164927367551</v>
       </c>
       <c r="M26" t="n">
         <v>105.1401664086071</v>
       </c>
       <c r="N26" t="n">
-        <v>106.8414442217581</v>
+        <v>106.8414442217582</v>
       </c>
       <c r="O26" t="n">
         <v>100.8873461119401</v>
       </c>
       <c r="P26" t="n">
-        <v>86.10501579529566</v>
+        <v>86.10501579529571</v>
       </c>
       <c r="Q26" t="n">
-        <v>64.66128093089756</v>
+        <v>64.6612809308976</v>
       </c>
       <c r="R26" t="n">
-        <v>37.61298457733324</v>
+        <v>37.61298457733326</v>
       </c>
       <c r="S26" t="n">
-        <v>13.64465223657861</v>
+        <v>13.64465223657862</v>
       </c>
       <c r="T26" t="n">
-        <v>2.621150418677909</v>
+        <v>2.621150418677911</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04790223495013879</v>
+        <v>0.04790223495013882</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.320374440471359</v>
+        <v>0.3203744404713592</v>
       </c>
       <c r="H27" t="n">
-        <v>3.094142622447073</v>
+        <v>3.094142622447075</v>
       </c>
       <c r="I27" t="n">
-        <v>11.0304357793867</v>
+        <v>11.03043577938671</v>
       </c>
       <c r="J27" t="n">
-        <v>30.26835886926993</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>69.56200296287118</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>81.17557642995791</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>83.32405239259268</v>
       </c>
       <c r="O27" t="n">
-        <v>76.22522926425356</v>
+        <v>76.22522926425361</v>
       </c>
       <c r="P27" t="n">
-        <v>61.17746661948258</v>
+        <v>61.17746661948262</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>40.89551629595807</v>
       </c>
       <c r="R27" t="n">
-        <v>19.89131833031824</v>
+        <v>19.89131833031826</v>
       </c>
       <c r="S27" t="n">
-        <v>5.950814716650019</v>
+        <v>5.950814716650023</v>
       </c>
       <c r="T27" t="n">
-        <v>1.291333819268328</v>
+        <v>1.291333819268329</v>
       </c>
       <c r="U27" t="n">
-        <v>0.02107726582048415</v>
+        <v>0.02107726582048417</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2685911688162241</v>
+        <v>0.2685911688162243</v>
       </c>
       <c r="H28" t="n">
-        <v>2.388019664566067</v>
+        <v>2.388019664566069</v>
       </c>
       <c r="I28" t="n">
-        <v>8.07726896767336</v>
+        <v>8.077268967673367</v>
       </c>
       <c r="J28" t="n">
-        <v>18.98939563530704</v>
+        <v>18.98939563530706</v>
       </c>
       <c r="K28" t="n">
-        <v>31.20541034064858</v>
+        <v>31.2054103406486</v>
       </c>
       <c r="L28" t="n">
-        <v>39.93218158927755</v>
+        <v>39.93218158927758</v>
       </c>
       <c r="M28" t="n">
-        <v>42.10288658089229</v>
+        <v>42.10288658089232</v>
       </c>
       <c r="N28" t="n">
-        <v>41.1017740425773</v>
+        <v>41.10177404257734</v>
       </c>
       <c r="O28" t="n">
-        <v>37.96414084322413</v>
+        <v>37.96414084322416</v>
       </c>
       <c r="P28" t="n">
-        <v>32.48488099937313</v>
+        <v>32.48488099937315</v>
       </c>
       <c r="Q28" t="n">
-        <v>22.49084778151128</v>
+        <v>22.4908477815113</v>
       </c>
       <c r="R28" t="n">
-        <v>12.07683564513676</v>
+        <v>12.07683564513678</v>
       </c>
       <c r="S28" t="n">
-        <v>4.680811551097286</v>
+        <v>4.68081155109729</v>
       </c>
       <c r="T28" t="n">
-        <v>1.147616812214775</v>
+        <v>1.147616812214776</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01465042738997588</v>
+        <v>0.01465042738997589</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5987779368767355</v>
+        <v>0.598777936876735</v>
       </c>
       <c r="H29" t="n">
-        <v>6.13223454603887</v>
+        <v>6.132234546038863</v>
       </c>
       <c r="I29" t="n">
-        <v>23.08438641144037</v>
+        <v>23.08438641144035</v>
       </c>
       <c r="J29" t="n">
-        <v>50.82052891999188</v>
+        <v>50.82052891999183</v>
       </c>
       <c r="K29" t="n">
-        <v>76.16679898798411</v>
+        <v>76.16679898798404</v>
       </c>
       <c r="L29" t="n">
-        <v>94.49164927367552</v>
+        <v>94.49164927367543</v>
       </c>
       <c r="M29" t="n">
-        <v>105.1401664086072</v>
+        <v>105.1401664086071</v>
       </c>
       <c r="N29" t="n">
-        <v>106.8414442217582</v>
+        <v>106.8414442217581</v>
       </c>
       <c r="O29" t="n">
-        <v>100.8873461119402</v>
+        <v>100.8873461119401</v>
       </c>
       <c r="P29" t="n">
-        <v>86.10501579529573</v>
+        <v>86.10501579529566</v>
       </c>
       <c r="Q29" t="n">
-        <v>64.66128093089762</v>
+        <v>64.66128093089756</v>
       </c>
       <c r="R29" t="n">
-        <v>37.61298457733327</v>
+        <v>37.61298457733324</v>
       </c>
       <c r="S29" t="n">
-        <v>13.64465223657862</v>
+        <v>13.64465223657861</v>
       </c>
       <c r="T29" t="n">
-        <v>2.621150418677911</v>
+        <v>2.621150418677909</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04790223495013883</v>
+        <v>0.04790223495013879</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.3203744404713593</v>
+        <v>0.320374440471359</v>
       </c>
       <c r="H30" t="n">
-        <v>3.094142622447075</v>
+        <v>3.094142622447073</v>
       </c>
       <c r="I30" t="n">
-        <v>11.03043577938671</v>
+        <v>11.0304357793867</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>51.73344638085103</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>69.56200296287123</v>
+        <v>69.56200296287118</v>
       </c>
       <c r="M30" t="n">
-        <v>81.175576429958</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>83.32405239259269</v>
+        <v>7.555174859988711</v>
       </c>
       <c r="O30" t="n">
-        <v>76.22522926425363</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>18.32653904975103</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>40.89551629595807</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>19.89131833031826</v>
+        <v>19.89131833031824</v>
       </c>
       <c r="S30" t="n">
-        <v>5.950814716650025</v>
+        <v>5.950814716650019</v>
       </c>
       <c r="T30" t="n">
-        <v>1.291333819268329</v>
+        <v>1.291333819268328</v>
       </c>
       <c r="U30" t="n">
-        <v>0.02107726582048417</v>
+        <v>0.02107726582048415</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2685911688162244</v>
+        <v>0.2685911688162241</v>
       </c>
       <c r="H31" t="n">
-        <v>2.388019664566069</v>
+        <v>2.388019664566067</v>
       </c>
       <c r="I31" t="n">
-        <v>8.077268967673369</v>
+        <v>8.07726896767336</v>
       </c>
       <c r="J31" t="n">
-        <v>18.98939563530706</v>
+        <v>18.98939563530704</v>
       </c>
       <c r="K31" t="n">
-        <v>31.20541034064861</v>
+        <v>31.20541034064858</v>
       </c>
       <c r="L31" t="n">
-        <v>39.93218158927758</v>
+        <v>39.93218158927755</v>
       </c>
       <c r="M31" t="n">
-        <v>42.10288658089233</v>
+        <v>42.10288658089229</v>
       </c>
       <c r="N31" t="n">
-        <v>41.10177404257735</v>
+        <v>41.1017740425773</v>
       </c>
       <c r="O31" t="n">
-        <v>37.96414084322416</v>
+        <v>37.96414084322413</v>
       </c>
       <c r="P31" t="n">
-        <v>32.48488099937316</v>
+        <v>32.48488099937313</v>
       </c>
       <c r="Q31" t="n">
-        <v>22.4908477815113</v>
+        <v>22.49084778151128</v>
       </c>
       <c r="R31" t="n">
-        <v>12.07683564513678</v>
+        <v>12.07683564513676</v>
       </c>
       <c r="S31" t="n">
-        <v>4.680811551097291</v>
+        <v>4.680811551097286</v>
       </c>
       <c r="T31" t="n">
-        <v>1.147616812214777</v>
+        <v>1.147616812214775</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01465042738997589</v>
+        <v>0.01465042738997588</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33499,28 +33499,28 @@
         <v>11.03043577938671</v>
       </c>
       <c r="J33" t="n">
-        <v>30.26835886926996</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>51.73344638085103</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>69.56200296287123</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>77.11717782286007</v>
       </c>
       <c r="N33" t="n">
-        <v>83.32405239259269</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>61.17746661948264</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>40.89551629595807</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>19.89131833031826</v>
@@ -33736,25 +33736,25 @@
         <v>11.03043577938671</v>
       </c>
       <c r="J36" t="n">
-        <v>30.26835886926996</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>51.73344638085103</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>81.175576429958</v>
+        <v>77.11717782286007</v>
       </c>
       <c r="N36" t="n">
-        <v>83.32405239259269</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>76.22522926425363</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>61.17746661948264</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -33973,28 +33973,28 @@
         <v>11.03043577938671</v>
       </c>
       <c r="J39" t="n">
-        <v>30.26835886926996</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>51.73344638085103</v>
       </c>
       <c r="L39" t="n">
-        <v>69.56200296287123</v>
+        <v>25.38373144200904</v>
       </c>
       <c r="M39" t="n">
-        <v>81.175576429958</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>83.32405239259269</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>76.22522926425363</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>40.89551629595807</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>19.89131833031826</v>
@@ -34210,7 +34210,7 @@
         <v>11.03043577938671</v>
       </c>
       <c r="J42" t="n">
-        <v>30.26835886926996</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -34219,7 +34219,7 @@
         <v>69.56200296287123</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>81.175576429958</v>
       </c>
       <c r="N42" t="n">
         <v>83.32405239259269</v>
@@ -34231,7 +34231,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>40.89551629595807</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>19.89131833031826</v>
@@ -34447,10 +34447,10 @@
         <v>11.03043577938672</v>
       </c>
       <c r="J45" t="n">
-        <v>30.26835886926997</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>51.73344638085105</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>69.56200296287126</v>
@@ -34462,13 +34462,13 @@
         <v>83.32405239259272</v>
       </c>
       <c r="O45" t="n">
-        <v>76.22522926425366</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>61.17746661948266</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>40.89551629595809</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>19.89131833031827</v>
@@ -34780,13 +34780,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>322.9688344062893</v>
+        <v>35.0500461102036</v>
       </c>
       <c r="L3" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>346.1939891046024</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N3" t="n">
         <v>662.4019911217769</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>322.9688344062893</v>
+        <v>35.0500461102036</v>
       </c>
       <c r="L6" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N6" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O6" t="n">
-        <v>107.2231205187088</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P6" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>570.8562868639657</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
-        <v>409.7185542589873</v>
+        <v>231.9364313068977</v>
       </c>
       <c r="Q9" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
         <v>322.9688344062893</v>
@@ -35497,16 +35497,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>662.4019911217769</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="O12" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>109.4615733925917</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
         <v>236.7324157120106</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>157.8412001051219</v>
+        <v>157.841200105122</v>
       </c>
       <c r="K14" t="n">
-        <v>380.1891469106016</v>
+        <v>380.1891469106017</v>
       </c>
       <c r="L14" t="n">
-        <v>520.1137459475979</v>
+        <v>520.113745947598</v>
       </c>
       <c r="M14" t="n">
-        <v>575.7843564088772</v>
+        <v>575.7843564088773</v>
       </c>
       <c r="N14" t="n">
-        <v>557.80369289978</v>
+        <v>557.8036928997801</v>
       </c>
       <c r="O14" t="n">
-        <v>467.7711114915061</v>
+        <v>467.7711114915062</v>
       </c>
       <c r="P14" t="n">
-        <v>371.5791683058974</v>
+        <v>371.5791683058975</v>
       </c>
       <c r="Q14" t="n">
-        <v>201.6377070420321</v>
+        <v>201.6377070420322</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
-        <v>334.9098710264983</v>
+        <v>334.9098710264984</v>
       </c>
       <c r="L15" t="n">
         <v>504.5067891677953</v>
       </c>
       <c r="M15" t="n">
-        <v>634.1127774006881</v>
+        <v>652.8496023877722</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>55.42105048411022</v>
       </c>
       <c r="O15" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>222.4315193165372</v>
+        <v>423.8394454877854</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>246.1718575403661</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,16 +35807,16 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>89.86444376997838</v>
+        <v>89.86444376997842</v>
       </c>
       <c r="L16" t="n">
         <v>175.0025811760213</v>
       </c>
       <c r="M16" t="n">
-        <v>197.8914366822186</v>
+        <v>197.8914366822187</v>
       </c>
       <c r="N16" t="n">
-        <v>194.5270843075076</v>
+        <v>194.5270843075077</v>
       </c>
       <c r="O16" t="n">
         <v>173.1110756733154</v>
@@ -35825,7 +35825,7 @@
         <v>128.5851477225022</v>
       </c>
       <c r="Q16" t="n">
-        <v>8.648067813913379</v>
+        <v>8.648067813913407</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>157.8412001051219</v>
+        <v>157.841200105122</v>
       </c>
       <c r="K17" t="n">
-        <v>380.1891469106016</v>
+        <v>380.1891469106017</v>
       </c>
       <c r="L17" t="n">
-        <v>520.1137459475979</v>
+        <v>520.113745947598</v>
       </c>
       <c r="M17" t="n">
-        <v>575.7843564088772</v>
+        <v>575.7843564088773</v>
       </c>
       <c r="N17" t="n">
-        <v>557.80369289978</v>
+        <v>557.8036928997801</v>
       </c>
       <c r="O17" t="n">
-        <v>467.7711114915061</v>
+        <v>467.7711114915062</v>
       </c>
       <c r="P17" t="n">
-        <v>371.5791683058974</v>
+        <v>371.5791683058975</v>
       </c>
       <c r="Q17" t="n">
-        <v>201.6377070420321</v>
+        <v>201.6377070420322</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>103.985191927771</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>334.9098710264984</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>504.5067891677953</v>
       </c>
       <c r="M18" t="n">
-        <v>634.1127774006881</v>
+        <v>652.8496023877722</v>
       </c>
       <c r="N18" t="n">
-        <v>662.4019911217769</v>
+        <v>681.6347241131064</v>
       </c>
       <c r="O18" t="n">
-        <v>521.7376591828091</v>
+        <v>43.7976293991555</v>
       </c>
       <c r="P18" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36044,16 +36044,16 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>89.86444376997838</v>
+        <v>89.86444376997842</v>
       </c>
       <c r="L19" t="n">
         <v>175.0025811760213</v>
       </c>
       <c r="M19" t="n">
-        <v>197.8914366822186</v>
+        <v>197.8914366822187</v>
       </c>
       <c r="N19" t="n">
-        <v>194.5270843075076</v>
+        <v>194.5270843075077</v>
       </c>
       <c r="O19" t="n">
         <v>173.1110756733154</v>
@@ -36062,7 +36062,7 @@
         <v>128.5851477225022</v>
       </c>
       <c r="Q19" t="n">
-        <v>8.648067813913379</v>
+        <v>8.648067813913407</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>157.8412001051219</v>
+        <v>157.841200105122</v>
       </c>
       <c r="K20" t="n">
         <v>380.1891469106016</v>
       </c>
       <c r="L20" t="n">
-        <v>520.1137459475979</v>
+        <v>520.113745947598</v>
       </c>
       <c r="M20" t="n">
-        <v>575.7843564088772</v>
+        <v>575.7843564088773</v>
       </c>
       <c r="N20" t="n">
-        <v>557.8036928997799</v>
+        <v>557.80369289978</v>
       </c>
       <c r="O20" t="n">
-        <v>467.7711114915061</v>
+        <v>467.7711114915062</v>
       </c>
       <c r="P20" t="n">
         <v>371.5791683058974</v>
       </c>
       <c r="Q20" t="n">
-        <v>201.6377070420321</v>
+        <v>201.6377070420322</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36202,19 +36202,19 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>334.9098710264983</v>
       </c>
       <c r="L21" t="n">
         <v>504.5067891677953</v>
       </c>
       <c r="M21" t="n">
-        <v>652.8496023877721</v>
+        <v>652.8496023877722</v>
       </c>
       <c r="N21" t="n">
-        <v>538.6045653559519</v>
+        <v>681.6347241131062</v>
       </c>
       <c r="O21" t="n">
-        <v>521.7376591828091</v>
+        <v>43.79762939915642</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36281,13 +36281,13 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>89.86444376997838</v>
+        <v>89.86444376997839</v>
       </c>
       <c r="L22" t="n">
-        <v>175.0025811760212</v>
+        <v>175.0025811760213</v>
       </c>
       <c r="M22" t="n">
-        <v>197.8914366822186</v>
+        <v>197.8914366822187</v>
       </c>
       <c r="N22" t="n">
         <v>194.5270843075076</v>
@@ -36299,7 +36299,7 @@
         <v>128.5851477225022</v>
       </c>
       <c r="Q22" t="n">
-        <v>8.648067813913377</v>
+        <v>8.648067813913389</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36363,7 +36363,7 @@
         <v>438.7752394197637</v>
       </c>
       <c r="L23" t="n">
-        <v>592.7949742418864</v>
+        <v>592.7949742418865</v>
       </c>
       <c r="M23" t="n">
         <v>656.6562270596986</v>
@@ -36372,7 +36372,7 @@
         <v>639.9841549666693</v>
       </c>
       <c r="O23" t="n">
-        <v>545.3717914577263</v>
+        <v>545.3717914577264</v>
       </c>
       <c r="P23" t="n">
         <v>437.8095533018834</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>350.113939418113</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>521.7376591828091</v>
+        <v>597.9628884470627</v>
       </c>
       <c r="P24" t="n">
-        <v>244.324086948512</v>
+        <v>470.8960208784699</v>
       </c>
       <c r="Q24" t="n">
-        <v>236.7324157120106</v>
+        <v>277.6279320079687</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36518,13 +36518,13 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>113.8670680274585</v>
+        <v>113.8670680274586</v>
       </c>
       <c r="L25" t="n">
-        <v>205.7176764112975</v>
+        <v>205.7176764112976</v>
       </c>
       <c r="M25" t="n">
-        <v>230.2761980336842</v>
+        <v>230.2761980336843</v>
       </c>
       <c r="N25" t="n">
         <v>226.1418084175361</v>
@@ -36536,7 +36536,7 @@
         <v>153.5719171373313</v>
       </c>
       <c r="Q25" t="n">
-        <v>25.94761179166376</v>
+        <v>25.94761179166378</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36600,7 +36600,7 @@
         <v>438.7752394197637</v>
       </c>
       <c r="L26" t="n">
-        <v>592.7949742418864</v>
+        <v>592.7949742418865</v>
       </c>
       <c r="M26" t="n">
         <v>656.6562270596986</v>
@@ -36609,7 +36609,7 @@
         <v>639.9841549666693</v>
       </c>
       <c r="O26" t="n">
-        <v>545.3717914577263</v>
+        <v>545.3717914577264</v>
       </c>
       <c r="P26" t="n">
         <v>437.8095533018834</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>558.0125947793492</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>715.288353830646</v>
+        <v>92.83848772022144</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>745.7260435143695</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>597.9628884470627</v>
       </c>
       <c r="P27" t="n">
         <v>470.8960208784699</v>
       </c>
       <c r="Q27" t="n">
-        <v>232.1431264710421</v>
+        <v>277.6279320079687</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36755,13 +36755,13 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>113.8670680274585</v>
+        <v>113.8670680274586</v>
       </c>
       <c r="L28" t="n">
-        <v>205.7176764112975</v>
+        <v>205.7176764112976</v>
       </c>
       <c r="M28" t="n">
-        <v>230.2761980336842</v>
+        <v>230.2761980336843</v>
       </c>
       <c r="N28" t="n">
         <v>226.1418084175361</v>
@@ -36773,7 +36773,7 @@
         <v>153.5719171373313</v>
       </c>
       <c r="Q28" t="n">
-        <v>25.94761179166376</v>
+        <v>25.94761179166378</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,25 +36831,25 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>196.9314106460809</v>
+        <v>196.9314106460808</v>
       </c>
       <c r="K29" t="n">
         <v>438.7752394197637</v>
       </c>
       <c r="L29" t="n">
-        <v>592.7949742418865</v>
+        <v>592.7949742418864</v>
       </c>
       <c r="M29" t="n">
-        <v>656.6562270596987</v>
+        <v>656.6562270596986</v>
       </c>
       <c r="N29" t="n">
-        <v>639.9841549666694</v>
+        <v>639.9841549666693</v>
       </c>
       <c r="O29" t="n">
-        <v>545.3717914577264</v>
+        <v>545.3717914577263</v>
       </c>
       <c r="P29" t="n">
-        <v>437.8095533018835</v>
+        <v>437.8095533018834</v>
       </c>
       <c r="Q29" t="n">
         <v>251.3739679419567</v>
@@ -36910,25 +36910,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
         <v>558.0125947793492</v>
       </c>
       <c r="M30" t="n">
-        <v>715.2883538306461</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>669.9571659817656</v>
       </c>
       <c r="O30" t="n">
-        <v>597.9628884470627</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>428.0450933087383</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36992,13 +36992,13 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>113.8670680274586</v>
+        <v>113.8670680274585</v>
       </c>
       <c r="L31" t="n">
-        <v>205.7176764112976</v>
+        <v>205.7176764112975</v>
       </c>
       <c r="M31" t="n">
-        <v>230.2761980336843</v>
+        <v>230.2761980336842</v>
       </c>
       <c r="N31" t="n">
         <v>226.1418084175361</v>
@@ -37010,7 +37010,7 @@
         <v>153.5719171373313</v>
       </c>
       <c r="Q31" t="n">
-        <v>25.94761179166378</v>
+        <v>25.94761179166376</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>144.5259166669744</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
-        <v>374.7022807871404</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>234.9890982065347</v>
+        <v>711.2299552235481</v>
       </c>
       <c r="N33" t="n">
-        <v>745.7260435143695</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O33" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>277.6279320079687</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37384,25 +37384,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
-        <v>374.7022807871404</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L36" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>711.2299552235481</v>
       </c>
       <c r="N36" t="n">
-        <v>745.7260435143695</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O36" t="n">
-        <v>219.5339933693386</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>470.8960208784699</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37621,25 +37621,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
         <v>374.7022807871404</v>
       </c>
       <c r="L39" t="n">
-        <v>171.1991633582373</v>
+        <v>513.8343232584871</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N39" t="n">
-        <v>745.7260435143695</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O39" t="n">
-        <v>597.9628884470627</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37858,25 +37858,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>166.0243804437273</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>558.0125947793492</v>
       </c>
       <c r="M42" t="n">
-        <v>634.1127774006881</v>
+        <v>715.2883538306461</v>
       </c>
       <c r="N42" t="n">
-        <v>733.7399395233118</v>
+        <v>745.7260435143695</v>
       </c>
       <c r="O42" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38095,13 +38095,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
-        <v>374.7022807871404</v>
+        <v>166.0243804437269</v>
       </c>
       <c r="L45" t="n">
-        <v>185.9643202256718</v>
+        <v>558.0125947793493</v>
       </c>
       <c r="M45" t="n">
         <v>715.2883538306461</v>
@@ -38116,7 +38116,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>277.6279320079687</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
